--- a/LM_Journal_Travail.xlsx
+++ b/LM_Journal_Travail.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3377EBD-D76F-427E-8AB5-F560E461B343}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0642F9AB-233E-4B2A-BEB6-32EF85E6BF64}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
+    <sheet name="Sébastien Berger" sheetId="4" r:id="rId2"/>
+    <sheet name="Tim Allemann" sheetId="8" r:id="rId3"/>
+    <sheet name="Hans Morsch" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="DiagrammePlanifBas">#REF!</definedName>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="28">
   <si>
     <t>Jalon</t>
   </si>
@@ -182,6 +185,12 @@
   <si>
     <t>Définition du chef de projet (Tim Allemann) et du Scrum Master (Sébastien Berger). Nous n'avons pas réparti les tâches nous avons plutôt collaboré ensemble pour bénéficier du point de vue de tout le monde.
 Le journal de travail a été rédigé dans cette idée car l'équipe souhaite fonctionner ensemble pour la partie rédaction et pas en singularisation des tâches.</t>
+  </si>
+  <si>
+    <t>Modification selon entretient avec le mandant</t>
+  </si>
+  <si>
+    <t>Correction sur le document.</t>
   </si>
 </sst>
 </file>
@@ -758,8 +767,8 @@
   </sheetPr>
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1021,11 +1030,19 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="13"/>
+    <row r="10" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2</v>
+      </c>
+      <c r="C10" s="8">
+        <v>43913</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="E10" s="10"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1067,7 +1084,7 @@
       </c>
       <c r="B12" s="14">
         <f>SUM(B3:B11)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -3720,4 +3737,6139 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
+  <dimension ref="A1:R94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>43906</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="7">
+        <v>4</v>
+      </c>
+      <c r="C4" s="8">
+        <v>43906</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="7">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8">
+        <v>43907</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="25">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8">
+        <v>43908</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="29">
+        <v>3</v>
+      </c>
+      <c r="C7" s="11">
+        <v>43909</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" ht="108" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="29">
+        <v>4</v>
+      </c>
+      <c r="C8" s="11">
+        <v>43910</v>
+      </c>
+      <c r="D8" s="30"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="31">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11">
+        <v>43911</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+    </row>
+    <row r="12" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="14">
+        <f>SUM(B3:B11)</f>
+        <v>24</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+    </row>
+    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+    </row>
+    <row r="14" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+    </row>
+    <row r="16" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="17"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+    </row>
+    <row r="17" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+    </row>
+    <row r="18" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+    </row>
+    <row r="19" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+    </row>
+    <row r="20" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+    </row>
+    <row r="21" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+    </row>
+    <row r="22" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+    </row>
+    <row r="23" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+    </row>
+    <row r="24" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+    </row>
+    <row r="25" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+    </row>
+    <row r="26" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+    </row>
+    <row r="27" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+    </row>
+    <row r="28" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+    </row>
+    <row r="29" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+    </row>
+    <row r="30" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+    </row>
+    <row r="31" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+    </row>
+    <row r="32" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="14">
+        <f>SUM(B16:B31)</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+    </row>
+    <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+    </row>
+    <row r="34" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="2">
+        <v>3</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+    </row>
+    <row r="35" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+    </row>
+    <row r="36" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+    </row>
+    <row r="37" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+    </row>
+    <row r="38" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+    </row>
+    <row r="39" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+    </row>
+    <row r="40" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+    </row>
+    <row r="41" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+    </row>
+    <row r="42" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+    </row>
+    <row r="43" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+    </row>
+    <row r="44" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="14">
+        <f>SUM(B36:B43)</f>
+        <v>0</v>
+      </c>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+    </row>
+    <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+    </row>
+    <row r="46" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="2">
+        <v>4</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+    </row>
+    <row r="47" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="10"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+    </row>
+    <row r="48" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+    </row>
+    <row r="49" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+    </row>
+    <row r="50" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+    </row>
+    <row r="51" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+    </row>
+    <row r="52" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+    </row>
+    <row r="53" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+    </row>
+    <row r="54" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+    </row>
+    <row r="55" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+    </row>
+    <row r="56" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+    </row>
+    <row r="57" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A57" s="25"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+    </row>
+    <row r="58" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="23"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+    </row>
+    <row r="59" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="14">
+        <f>SUM(B48:B58)</f>
+        <v>0</v>
+      </c>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+    </row>
+    <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4"/>
+    </row>
+    <row r="61" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="2">
+        <v>5</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+    </row>
+    <row r="62" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="10"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+    </row>
+    <row r="63" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A63" s="19"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4"/>
+    </row>
+    <row r="64" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4"/>
+    </row>
+    <row r="65" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4"/>
+    </row>
+    <row r="66" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4"/>
+    </row>
+    <row r="67" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="4"/>
+    </row>
+    <row r="68" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="23"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="4"/>
+    </row>
+    <row r="69" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="14">
+        <f>SUM(B63:B68)</f>
+        <v>0</v>
+      </c>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="4"/>
+    </row>
+    <row r="70" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4"/>
+    </row>
+    <row r="71" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="2">
+        <v>6</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4"/>
+      <c r="R71" s="4"/>
+    </row>
+    <row r="72" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="10"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4"/>
+    </row>
+    <row r="73" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A73" s="19"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="4"/>
+    </row>
+    <row r="74" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="4"/>
+    </row>
+    <row r="75" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+      <c r="R75" s="4"/>
+    </row>
+    <row r="76" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="4"/>
+    </row>
+    <row r="77" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4"/>
+    </row>
+    <row r="78" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="4"/>
+    </row>
+    <row r="79" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="4"/>
+    </row>
+    <row r="80" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="23"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="4"/>
+    </row>
+    <row r="81" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="14">
+        <f>SUM(B73:B80)</f>
+        <v>0</v>
+      </c>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="4"/>
+    </row>
+    <row r="82" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+      <c r="R82" s="4"/>
+    </row>
+    <row r="83" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A83" s="27"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="4"/>
+      <c r="R83" s="4"/>
+    </row>
+    <row r="84" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A84" s="27"/>
+      <c r="B84" s="27"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="4"/>
+      <c r="Q84" s="4"/>
+      <c r="R84" s="4"/>
+    </row>
+    <row r="85" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A85" s="27"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="4"/>
+      <c r="Q85" s="4"/>
+      <c r="R85" s="4"/>
+    </row>
+    <row r="86" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A86" s="27"/>
+      <c r="B86" s="27"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="4"/>
+      <c r="Q86" s="4"/>
+      <c r="R86" s="4"/>
+    </row>
+    <row r="87" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A87" s="27"/>
+      <c r="B87" s="27"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="4"/>
+      <c r="Q87" s="4"/>
+      <c r="R87" s="4"/>
+    </row>
+    <row r="88" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A88" s="27"/>
+      <c r="B88" s="27"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4"/>
+      <c r="Q88" s="4"/>
+      <c r="R88" s="4"/>
+    </row>
+    <row r="89" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A89" s="27"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
+      <c r="Q89" s="4"/>
+      <c r="R89" s="4"/>
+    </row>
+    <row r="90" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A90" s="27"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="4"/>
+      <c r="Q90" s="4"/>
+      <c r="R90" s="4"/>
+    </row>
+    <row r="91" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A91" s="27"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4"/>
+      <c r="R91" s="4"/>
+    </row>
+    <row r="92" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A92" s="27"/>
+      <c r="B92" s="27"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="4"/>
+      <c r="Q92" s="4"/>
+      <c r="R92" s="4"/>
+    </row>
+    <row r="93" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A93" s="27"/>
+      <c r="B93" s="27"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
+      <c r="Q93" s="4"/>
+      <c r="R93" s="4"/>
+    </row>
+    <row r="94" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A94" s="28"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="4"/>
+      <c r="Q94" s="4"/>
+      <c r="R94" s="4"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B12 B32 B44 B59 B69 B81" xr:uid="{41F29EDA-D509-4469-8DFB-6A4CE4CEAE07}">
+      <formula1>0</formula1>
+      <formula2>DureePeriode-1</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B73:B80 B16:B31 B36:B37 B39:B43 B48:B58 B63:B68 B10:B11 B3:B8" xr:uid="{3039B7E3-952E-4B34-B612-E5A0C049619C}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716E2DDB-6361-470B-ACF3-8FDF9046203A}">
+  <dimension ref="A1:R94"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>43906</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="7">
+        <v>4</v>
+      </c>
+      <c r="C4" s="8">
+        <v>43906</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="7">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8">
+        <v>43907</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="25">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8">
+        <v>43908</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="29">
+        <v>3</v>
+      </c>
+      <c r="C7" s="11">
+        <v>43909</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" ht="108" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="29">
+        <v>4</v>
+      </c>
+      <c r="C8" s="11">
+        <v>43910</v>
+      </c>
+      <c r="D8" s="30"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="31">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11">
+        <v>43911</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+    </row>
+    <row r="12" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="14">
+        <f>SUM(B3:B11)</f>
+        <v>24</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+    </row>
+    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+    </row>
+    <row r="14" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+    </row>
+    <row r="16" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="17"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+    </row>
+    <row r="17" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+    </row>
+    <row r="18" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+    </row>
+    <row r="19" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+    </row>
+    <row r="20" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+    </row>
+    <row r="21" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+    </row>
+    <row r="22" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+    </row>
+    <row r="23" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+    </row>
+    <row r="24" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+    </row>
+    <row r="25" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+    </row>
+    <row r="26" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+    </row>
+    <row r="27" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+    </row>
+    <row r="28" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+    </row>
+    <row r="29" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+    </row>
+    <row r="30" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+    </row>
+    <row r="31" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+    </row>
+    <row r="32" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="14">
+        <f>SUM(B16:B31)</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+    </row>
+    <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+    </row>
+    <row r="34" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="2">
+        <v>3</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+    </row>
+    <row r="35" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+    </row>
+    <row r="36" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+    </row>
+    <row r="37" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+    </row>
+    <row r="38" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+    </row>
+    <row r="39" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+    </row>
+    <row r="40" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+    </row>
+    <row r="41" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+    </row>
+    <row r="42" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+    </row>
+    <row r="43" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+    </row>
+    <row r="44" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="14">
+        <f>SUM(B36:B43)</f>
+        <v>0</v>
+      </c>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+    </row>
+    <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+    </row>
+    <row r="46" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="2">
+        <v>4</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+    </row>
+    <row r="47" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="10"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+    </row>
+    <row r="48" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+    </row>
+    <row r="49" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+    </row>
+    <row r="50" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+    </row>
+    <row r="51" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+    </row>
+    <row r="52" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+    </row>
+    <row r="53" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+    </row>
+    <row r="54" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+    </row>
+    <row r="55" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+    </row>
+    <row r="56" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+    </row>
+    <row r="57" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A57" s="25"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+    </row>
+    <row r="58" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="23"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+    </row>
+    <row r="59" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="14">
+        <f>SUM(B48:B58)</f>
+        <v>0</v>
+      </c>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+    </row>
+    <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4"/>
+    </row>
+    <row r="61" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="2">
+        <v>5</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+    </row>
+    <row r="62" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="10"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+    </row>
+    <row r="63" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A63" s="19"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4"/>
+    </row>
+    <row r="64" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4"/>
+    </row>
+    <row r="65" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4"/>
+    </row>
+    <row r="66" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4"/>
+    </row>
+    <row r="67" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="4"/>
+    </row>
+    <row r="68" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="23"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="4"/>
+    </row>
+    <row r="69" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="14">
+        <f>SUM(B63:B68)</f>
+        <v>0</v>
+      </c>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="4"/>
+    </row>
+    <row r="70" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4"/>
+    </row>
+    <row r="71" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="2">
+        <v>6</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4"/>
+      <c r="R71" s="4"/>
+    </row>
+    <row r="72" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="10"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4"/>
+    </row>
+    <row r="73" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A73" s="19"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="4"/>
+    </row>
+    <row r="74" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="4"/>
+    </row>
+    <row r="75" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+      <c r="R75" s="4"/>
+    </row>
+    <row r="76" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="4"/>
+    </row>
+    <row r="77" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4"/>
+    </row>
+    <row r="78" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="4"/>
+    </row>
+    <row r="79" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="4"/>
+    </row>
+    <row r="80" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="23"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="4"/>
+    </row>
+    <row r="81" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="14">
+        <f>SUM(B73:B80)</f>
+        <v>0</v>
+      </c>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="4"/>
+    </row>
+    <row r="82" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+      <c r="R82" s="4"/>
+    </row>
+    <row r="83" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A83" s="27"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="4"/>
+      <c r="R83" s="4"/>
+    </row>
+    <row r="84" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A84" s="27"/>
+      <c r="B84" s="27"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="4"/>
+      <c r="Q84" s="4"/>
+      <c r="R84" s="4"/>
+    </row>
+    <row r="85" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A85" s="27"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="4"/>
+      <c r="Q85" s="4"/>
+      <c r="R85" s="4"/>
+    </row>
+    <row r="86" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A86" s="27"/>
+      <c r="B86" s="27"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="4"/>
+      <c r="Q86" s="4"/>
+      <c r="R86" s="4"/>
+    </row>
+    <row r="87" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A87" s="27"/>
+      <c r="B87" s="27"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="4"/>
+      <c r="Q87" s="4"/>
+      <c r="R87" s="4"/>
+    </row>
+    <row r="88" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A88" s="27"/>
+      <c r="B88" s="27"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4"/>
+      <c r="Q88" s="4"/>
+      <c r="R88" s="4"/>
+    </row>
+    <row r="89" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A89" s="27"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
+      <c r="Q89" s="4"/>
+      <c r="R89" s="4"/>
+    </row>
+    <row r="90" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A90" s="27"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="4"/>
+      <c r="Q90" s="4"/>
+      <c r="R90" s="4"/>
+    </row>
+    <row r="91" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A91" s="27"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4"/>
+      <c r="R91" s="4"/>
+    </row>
+    <row r="92" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A92" s="27"/>
+      <c r="B92" s="27"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="4"/>
+      <c r="Q92" s="4"/>
+      <c r="R92" s="4"/>
+    </row>
+    <row r="93" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A93" s="27"/>
+      <c r="B93" s="27"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
+      <c r="Q93" s="4"/>
+      <c r="R93" s="4"/>
+    </row>
+    <row r="94" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A94" s="28"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="4"/>
+      <c r="Q94" s="4"/>
+      <c r="R94" s="4"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B73:B80 B16:B31 B36:B37 B39:B43 B48:B58 B63:B68 B10:B11 B3:B8" xr:uid="{76F8C2A5-22FC-42B6-BF5F-FD1899EE52B8}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B12 B32 B44 B59 B69 B81" xr:uid="{BD151BE4-B931-4CBD-823B-9C753DC07C8D}">
+      <formula1>0</formula1>
+      <formula2>DureePeriode-1</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
+  <dimension ref="A1:R94"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>43906</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="7">
+        <v>4</v>
+      </c>
+      <c r="C4" s="8">
+        <v>43906</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="7">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8">
+        <v>43907</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="25">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8">
+        <v>43908</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="29">
+        <v>3</v>
+      </c>
+      <c r="C7" s="11">
+        <v>43909</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" ht="108" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="29">
+        <v>4</v>
+      </c>
+      <c r="C8" s="11">
+        <v>43910</v>
+      </c>
+      <c r="D8" s="30"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="31">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11">
+        <v>43911</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+    </row>
+    <row r="12" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="14">
+        <f>SUM(B3:B11)</f>
+        <v>24</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+    </row>
+    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+    </row>
+    <row r="14" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+    </row>
+    <row r="16" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="17"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+    </row>
+    <row r="17" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+    </row>
+    <row r="18" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+    </row>
+    <row r="19" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+    </row>
+    <row r="20" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+    </row>
+    <row r="21" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+    </row>
+    <row r="22" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+    </row>
+    <row r="23" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+    </row>
+    <row r="24" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+    </row>
+    <row r="25" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+    </row>
+    <row r="26" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+    </row>
+    <row r="27" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+    </row>
+    <row r="28" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+    </row>
+    <row r="29" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+    </row>
+    <row r="30" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+    </row>
+    <row r="31" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+    </row>
+    <row r="32" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="14">
+        <f>SUM(B16:B31)</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+    </row>
+    <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+    </row>
+    <row r="34" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="2">
+        <v>3</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+    </row>
+    <row r="35" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+    </row>
+    <row r="36" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+    </row>
+    <row r="37" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+    </row>
+    <row r="38" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+    </row>
+    <row r="39" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+    </row>
+    <row r="40" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+    </row>
+    <row r="41" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+    </row>
+    <row r="42" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+    </row>
+    <row r="43" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+    </row>
+    <row r="44" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="14">
+        <f>SUM(B36:B43)</f>
+        <v>0</v>
+      </c>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+    </row>
+    <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+    </row>
+    <row r="46" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="2">
+        <v>4</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+    </row>
+    <row r="47" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="10"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+    </row>
+    <row r="48" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+    </row>
+    <row r="49" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+    </row>
+    <row r="50" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+    </row>
+    <row r="51" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+    </row>
+    <row r="52" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+    </row>
+    <row r="53" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+    </row>
+    <row r="54" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+    </row>
+    <row r="55" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+    </row>
+    <row r="56" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+    </row>
+    <row r="57" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A57" s="25"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+    </row>
+    <row r="58" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="23"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+    </row>
+    <row r="59" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="14">
+        <f>SUM(B48:B58)</f>
+        <v>0</v>
+      </c>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+    </row>
+    <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4"/>
+    </row>
+    <row r="61" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="2">
+        <v>5</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+    </row>
+    <row r="62" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="10"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+    </row>
+    <row r="63" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A63" s="19"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4"/>
+    </row>
+    <row r="64" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4"/>
+    </row>
+    <row r="65" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4"/>
+    </row>
+    <row r="66" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4"/>
+    </row>
+    <row r="67" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="4"/>
+    </row>
+    <row r="68" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="23"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="4"/>
+    </row>
+    <row r="69" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="14">
+        <f>SUM(B63:B68)</f>
+        <v>0</v>
+      </c>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="4"/>
+    </row>
+    <row r="70" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4"/>
+    </row>
+    <row r="71" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="2">
+        <v>6</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4"/>
+      <c r="R71" s="4"/>
+    </row>
+    <row r="72" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="10"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4"/>
+    </row>
+    <row r="73" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A73" s="19"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="4"/>
+    </row>
+    <row r="74" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="4"/>
+    </row>
+    <row r="75" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+      <c r="R75" s="4"/>
+    </row>
+    <row r="76" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="4"/>
+    </row>
+    <row r="77" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4"/>
+    </row>
+    <row r="78" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="4"/>
+    </row>
+    <row r="79" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="4"/>
+    </row>
+    <row r="80" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="23"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="4"/>
+    </row>
+    <row r="81" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="14">
+        <f>SUM(B73:B80)</f>
+        <v>0</v>
+      </c>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="4"/>
+    </row>
+    <row r="82" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+      <c r="R82" s="4"/>
+    </row>
+    <row r="83" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A83" s="27"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="4"/>
+      <c r="R83" s="4"/>
+    </row>
+    <row r="84" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A84" s="27"/>
+      <c r="B84" s="27"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="4"/>
+      <c r="Q84" s="4"/>
+      <c r="R84" s="4"/>
+    </row>
+    <row r="85" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A85" s="27"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="4"/>
+      <c r="Q85" s="4"/>
+      <c r="R85" s="4"/>
+    </row>
+    <row r="86" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A86" s="27"/>
+      <c r="B86" s="27"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="4"/>
+      <c r="Q86" s="4"/>
+      <c r="R86" s="4"/>
+    </row>
+    <row r="87" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A87" s="27"/>
+      <c r="B87" s="27"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="4"/>
+      <c r="Q87" s="4"/>
+      <c r="R87" s="4"/>
+    </row>
+    <row r="88" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A88" s="27"/>
+      <c r="B88" s="27"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4"/>
+      <c r="Q88" s="4"/>
+      <c r="R88" s="4"/>
+    </row>
+    <row r="89" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A89" s="27"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
+      <c r="Q89" s="4"/>
+      <c r="R89" s="4"/>
+    </row>
+    <row r="90" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A90" s="27"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="4"/>
+      <c r="Q90" s="4"/>
+      <c r="R90" s="4"/>
+    </row>
+    <row r="91" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A91" s="27"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4"/>
+      <c r="R91" s="4"/>
+    </row>
+    <row r="92" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A92" s="27"/>
+      <c r="B92" s="27"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="4"/>
+      <c r="Q92" s="4"/>
+      <c r="R92" s="4"/>
+    </row>
+    <row r="93" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A93" s="27"/>
+      <c r="B93" s="27"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
+      <c r="Q93" s="4"/>
+      <c r="R93" s="4"/>
+    </row>
+    <row r="94" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A94" s="28"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="4"/>
+      <c r="Q94" s="4"/>
+      <c r="R94" s="4"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B73:B80 B16:B31 B36:B37 B39:B43 B48:B58 B63:B68 B10:B11 B3:B8" xr:uid="{64471589-AB55-4AF0-A3CB-2C4DA302E1FD}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B12 B32 B44 B59 B69 B81" xr:uid="{E5C4B3DD-C4A0-4BDF-8596-69EE95FDEE2C}">
+      <formula1>0</formula1>
+      <formula2>DureePeriode-1</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LM_Journal_Travail.xlsx
+++ b/LM_Journal_Travail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0642F9AB-233E-4B2A-BEB6-32EF85E6BF64}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{0642F9AB-233E-4B2A-BEB6-32EF85E6BF64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F9142300-1FCD-4F40-A10D-C973D45D6EB1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -28,12 +28,14 @@
     <definedName name="NBLecons">#REF!</definedName>
     <definedName name="TachesPlanifiees">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="27">
   <si>
     <t>Jalon</t>
   </si>
@@ -74,75 +76,11 @@
     </r>
   </si>
   <si>
-    <t>Total session</t>
+    <t>Définition des rôles</t>
   </si>
   <si>
-    <r>
-      <t>Explications:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-      </rPr>
-      <t xml:space="preserve"> qu'est-ce qui se fait et comment ?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Explications:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-      </rPr>
-      <t xml:space="preserve"> qu'est-ce qui se fait et comment ?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Explications:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-      </rPr>
-      <t xml:space="preserve"> qu'est-ce qui se fait et comment ?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Explications:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-      </rPr>
-      <t xml:space="preserve"> qu'est-ce qui se fait et comment ?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Explications:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-      </rPr>
-      <t xml:space="preserve"> qu'est-ce qui se fait et comment ?</t>
-    </r>
-  </si>
-  <si>
-    <t>Définition des rôles</t>
+    <t>Définition du chef de projet (Tim Allemann) et du Scrum Master (Sébastien Berger). Nous n'avons pas réparti les tâches nous avons plutôt collaboré ensemble pour bénéficier du point de vue de tout le monde.
+Le journal de travail a été rédigé dans cette idée car l'équipe souhaite fonctionner ensemble pour la partie rédaction et pas en singularisation des tâches.</t>
   </si>
   <si>
     <t>Rédaction de l'étude</t>
@@ -154,13 +92,13 @@
     <t>Rédaction du plan de gestion de projet + étude</t>
   </si>
   <si>
+    <t>Une fois que nous avions bien avancé l'étude du projet,nous nous sommes lancé dans la rédaction du plan de gestion de projet. Nous avons élaboré le PBS ainsi que le WBS. Monsieur Berger a parcouru le document un peu plus tôt dans la journée pour prendre connaissance des éléments à compléter.</t>
+  </si>
+  <si>
     <t>Rédaction du mandat + étude</t>
   </si>
   <si>
     <t>Nous avons continué la rédaction de l'étude, le document a été passé en revue par l'équipe individuellement cette fois car nous n'avions pas le même planning, nous avons complété ce qui était déjà complétable dans le mandat de projet. Nous avons estimé les coûts et nous nous sommes fait beaucoup de réflexion. Encore une fois nous avons choisir de travailler en équipe et de ne pas distribuer les tâches pour pouvoir avoir le point de vue de l'ensemble du groupe.</t>
-  </si>
-  <si>
-    <t>Une fois que nous avions bien avancé l'étude du projet,nous nous sommes lancé dans la rédaction du plan de gestion de projet. Nous avons élaboré le PBS ainsi que le WBS. Monsieur Berger a parcouru le document un peu plus tôt dans la journée pour prendre connaissance des éléments à compléter.</t>
   </si>
   <si>
     <t>Rédaction du mandat + finalisation de l'étude</t>
@@ -183,14 +121,25 @@
 Tout l'équipe s'est mis sur la finalisation du mandat de projet. Nous avons pu terminer le document, déterminer les coûts et identifer les points manquants dans le mandat.</t>
   </si>
   <si>
-    <t>Définition du chef de projet (Tim Allemann) et du Scrum Master (Sébastien Berger). Nous n'avons pas réparti les tâches nous avons plutôt collaboré ensemble pour bénéficier du point de vue de tout le monde.
-Le journal de travail a été rédigé dans cette idée car l'équipe souhaite fonctionner ensemble pour la partie rédaction et pas en singularisation des tâches.</t>
-  </si>
-  <si>
     <t>Modification selon entretient avec le mandant</t>
   </si>
   <si>
     <t>Correction sur le document.</t>
+  </si>
+  <si>
+    <t>Total session</t>
+  </si>
+  <si>
+    <t>Variantes</t>
+  </si>
+  <si>
+    <t>Mis à jour et relecture des variantes</t>
+  </si>
+  <si>
+    <t>WBS</t>
+  </si>
+  <si>
+    <t>Mis à jour et relecture du WBS</t>
   </si>
 </sst>
 </file>
@@ -201,7 +150,7 @@
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
     <numFmt numFmtId="165" formatCode="dd\.mm\.yy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -767,11 +716,11 @@
   </sheetPr>
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="6.140625" customWidth="1"/>
@@ -780,7 +729,7 @@
     <col min="5" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="18.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -806,7 +755,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -834,9 +783,9 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="94.5">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
@@ -845,7 +794,7 @@
         <v>43906</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="4"/>
@@ -862,9 +811,9 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="54">
       <c r="A4" s="7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B4" s="7">
         <v>4</v>
@@ -873,7 +822,7 @@
         <v>43906</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="4"/>
@@ -890,9 +839,9 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="54">
       <c r="A5" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B5" s="7">
         <v>3</v>
@@ -901,7 +850,7 @@
         <v>43907</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="4"/>
@@ -918,9 +867,9 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="81">
       <c r="A6" s="25" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B6" s="25">
         <v>4</v>
@@ -929,7 +878,7 @@
         <v>43908</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="4"/>
@@ -946,9 +895,9 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="54">
       <c r="A7" s="29" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B7" s="29">
         <v>3</v>
@@ -957,7 +906,7 @@
         <v>43909</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="4"/>
@@ -974,9 +923,9 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="94.5">
       <c r="A8" s="29" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B8" s="29">
         <v>4</v>
@@ -985,7 +934,7 @@
         <v>43910</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="4"/>
@@ -1002,9 +951,9 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="81" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="81">
       <c r="A9" s="29" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B9" s="31">
         <v>5</v>
@@ -1013,7 +962,7 @@
         <v>43911</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="4"/>
@@ -1030,9 +979,9 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="67.5">
       <c r="A10" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B10" s="7">
         <v>2</v>
@@ -1041,7 +990,7 @@
         <v>43913</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="4"/>
@@ -1058,7 +1007,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" thickBot="1">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -1078,9 +1027,9 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" thickBot="1">
       <c r="A12" s="14" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B12" s="14">
         <f>SUM(B3:B11)</f>
@@ -1103,7 +1052,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" thickBot="1">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -1123,7 +1072,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="18.75" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1147,7 +1096,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
@@ -1156,7 +1105,7 @@
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="4"/>
@@ -1173,7 +1122,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="14.25">
       <c r="A16" s="17"/>
       <c r="B16" s="7"/>
       <c r="C16" s="18"/>
@@ -1193,7 +1142,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="14.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="9"/>
@@ -1213,7 +1162,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="14.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="9"/>
@@ -1233,7 +1182,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="14.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="9"/>
@@ -1253,7 +1202,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="14.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="9"/>
@@ -1273,7 +1222,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="15.75" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="9"/>
@@ -1293,7 +1242,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="15.75" customHeight="1">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="9"/>
@@ -1313,7 +1262,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="15.75" customHeight="1">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="9"/>
@@ -1333,7 +1282,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="15.75" customHeight="1">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="9"/>
@@ -1353,7 +1302,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="15.75" customHeight="1">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="9"/>
@@ -1373,7 +1322,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="15.75" customHeight="1">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="9"/>
@@ -1393,7 +1342,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="15.75" customHeight="1">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="9"/>
@@ -1413,7 +1362,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="15.75" customHeight="1">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="9"/>
@@ -1433,7 +1382,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="15.75" customHeight="1">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="9"/>
@@ -1453,7 +1402,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="15.75" customHeight="1">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="9"/>
@@ -1473,7 +1422,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="15.75" customHeight="1">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="9"/>
@@ -1493,9 +1442,9 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="15.75" customHeight="1">
       <c r="A32" s="14" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B32" s="14">
         <f>SUM(B16:B31)</f>
@@ -1518,7 +1467,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="15.75" customHeight="1">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -1538,7 +1487,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -1562,7 +1511,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" ht="15.75" customHeight="1">
       <c r="A35" s="5" t="s">
         <v>2</v>
       </c>
@@ -1571,7 +1520,7 @@
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="4"/>
@@ -1588,7 +1537,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="15.75" customHeight="1">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="21"/>
@@ -1608,7 +1557,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="15.75" customHeight="1">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="21"/>
@@ -1628,7 +1577,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="15.75" customHeight="1">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="22"/>
@@ -1648,7 +1597,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="15.75" customHeight="1">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="9"/>
@@ -1668,7 +1617,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="15.75" customHeight="1">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="9"/>
@@ -1688,7 +1637,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="15.75" customHeight="1">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="9"/>
@@ -1708,7 +1657,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="15.75" customHeight="1">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="9"/>
@@ -1728,7 +1677,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="15.75" customHeight="1">
       <c r="A43" s="23"/>
       <c r="B43" s="23"/>
       <c r="C43" s="24"/>
@@ -1748,9 +1697,9 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="15.75" customHeight="1">
       <c r="A44" s="14" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B44" s="14">
         <f>SUM(B36:B43)</f>
@@ -1773,7 +1722,7 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" ht="15.75" customHeight="1">
       <c r="A45" s="16"/>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
@@ -1793,7 +1742,7 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -1817,7 +1766,7 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="15.75" customHeight="1">
       <c r="A47" s="5" t="s">
         <v>2</v>
       </c>
@@ -1826,7 +1775,7 @@
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E47" s="10"/>
       <c r="F47" s="4"/>
@@ -1843,7 +1792,7 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" ht="15.75" customHeight="1">
       <c r="A48" s="19"/>
       <c r="B48" s="19"/>
       <c r="C48" s="20"/>
@@ -1863,7 +1812,7 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" ht="15.75" customHeight="1">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="9"/>
@@ -1883,7 +1832,7 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" ht="15.75" customHeight="1">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="9"/>
@@ -1903,7 +1852,7 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" ht="15.75" customHeight="1">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="9"/>
@@ -1923,7 +1872,7 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" ht="15.75" customHeight="1">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="9"/>
@@ -1943,7 +1892,7 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" ht="15.75" customHeight="1">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="9"/>
@@ -1963,7 +1912,7 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" ht="15.75" customHeight="1">
       <c r="A54" s="25"/>
       <c r="B54" s="25"/>
       <c r="C54" s="26"/>
@@ -1983,7 +1932,7 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" ht="15.75" customHeight="1">
       <c r="A55" s="25"/>
       <c r="B55" s="25"/>
       <c r="C55" s="26"/>
@@ -2003,7 +1952,7 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" ht="15.75" customHeight="1">
       <c r="A56" s="25"/>
       <c r="B56" s="25"/>
       <c r="C56" s="26"/>
@@ -2023,7 +1972,7 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" ht="15.75" customHeight="1">
       <c r="A57" s="25"/>
       <c r="B57" s="25"/>
       <c r="C57" s="26"/>
@@ -2043,7 +1992,7 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" ht="15.75" customHeight="1">
       <c r="A58" s="23"/>
       <c r="B58" s="23"/>
       <c r="C58" s="24"/>
@@ -2063,9 +2012,9 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" ht="15.75" customHeight="1">
       <c r="A59" s="14" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B59" s="14">
         <f>SUM(B48:B58)</f>
@@ -2088,7 +2037,7 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" ht="15.75" customHeight="1">
       <c r="A60" s="16"/>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
@@ -2108,7 +2057,7 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" ht="15.75" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
@@ -2132,7 +2081,7 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" ht="15.75" customHeight="1">
       <c r="A62" s="5" t="s">
         <v>2</v>
       </c>
@@ -2141,7 +2090,7 @@
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="4"/>
@@ -2158,7 +2107,7 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" ht="15.75" customHeight="1">
       <c r="A63" s="19"/>
       <c r="B63" s="19"/>
       <c r="C63" s="20"/>
@@ -2178,7 +2127,7 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" ht="15.75" customHeight="1">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="9"/>
@@ -2198,7 +2147,7 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
     </row>
-    <row r="65" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" ht="15.75" customHeight="1">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="9"/>
@@ -2218,7 +2167,7 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
     </row>
-    <row r="66" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" ht="15.75" customHeight="1">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="9"/>
@@ -2238,7 +2187,7 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
     </row>
-    <row r="67" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" ht="15.75" customHeight="1">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="9"/>
@@ -2258,7 +2207,7 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" ht="15.75" customHeight="1">
       <c r="A68" s="23"/>
       <c r="B68" s="23"/>
       <c r="C68" s="24"/>
@@ -2278,9 +2227,9 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
     </row>
-    <row r="69" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" ht="15.75" customHeight="1">
       <c r="A69" s="14" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B69" s="14">
         <f>SUM(B63:B68)</f>
@@ -2303,7 +2252,7 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
     </row>
-    <row r="70" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" ht="15.75" customHeight="1">
       <c r="A70" s="16"/>
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
@@ -2323,7 +2272,7 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" ht="15.75" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
@@ -2347,7 +2296,7 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
-    <row r="72" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" ht="15.75" customHeight="1">
       <c r="A72" s="5" t="s">
         <v>2</v>
       </c>
@@ -2356,7 +2305,7 @@
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E72" s="10"/>
       <c r="F72" s="4"/>
@@ -2373,7 +2322,7 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" ht="15.75" customHeight="1">
       <c r="A73" s="19"/>
       <c r="B73" s="19"/>
       <c r="C73" s="20"/>
@@ -2393,7 +2342,7 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
-    <row r="74" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" ht="15.75" customHeight="1">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="9"/>
@@ -2413,7 +2362,7 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
     </row>
-    <row r="75" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" ht="15.75" customHeight="1">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="9"/>
@@ -2433,7 +2382,7 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
     </row>
-    <row r="76" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" ht="15.75" customHeight="1">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="9"/>
@@ -2453,7 +2402,7 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
     </row>
-    <row r="77" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" ht="15.75" customHeight="1">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="9"/>
@@ -2473,7 +2422,7 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" ht="15.75" customHeight="1">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="9"/>
@@ -2493,7 +2442,7 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
     </row>
-    <row r="79" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" ht="15.75" customHeight="1">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="9"/>
@@ -2513,7 +2462,7 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
     </row>
-    <row r="80" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" ht="15.75" customHeight="1">
       <c r="A80" s="23"/>
       <c r="B80" s="23"/>
       <c r="C80" s="24"/>
@@ -2533,9 +2482,9 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
     </row>
-    <row r="81" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" ht="15.75" customHeight="1">
       <c r="A81" s="14" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B81" s="14">
         <f>SUM(B73:B80)</f>
@@ -2558,7 +2507,7 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
     </row>
-    <row r="82" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" ht="15.75" customHeight="1">
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
@@ -2578,7 +2527,7 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
     </row>
-    <row r="83" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" ht="15.75" customHeight="1">
       <c r="A83" s="27"/>
       <c r="B83" s="27"/>
       <c r="C83" s="27"/>
@@ -2598,7 +2547,7 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
     </row>
-    <row r="84" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" ht="15.75" customHeight="1">
       <c r="A84" s="27"/>
       <c r="B84" s="27"/>
       <c r="C84" s="27"/>
@@ -2618,7 +2567,7 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
     </row>
-    <row r="85" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" ht="15.75" customHeight="1">
       <c r="A85" s="27"/>
       <c r="B85" s="27"/>
       <c r="C85" s="27"/>
@@ -2638,7 +2587,7 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
     </row>
-    <row r="86" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" ht="15.75" customHeight="1">
       <c r="A86" s="27"/>
       <c r="B86" s="27"/>
       <c r="C86" s="27"/>
@@ -2658,7 +2607,7 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
     </row>
-    <row r="87" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" ht="15.75" customHeight="1">
       <c r="A87" s="27"/>
       <c r="B87" s="27"/>
       <c r="C87" s="27"/>
@@ -2678,7 +2627,7 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
     </row>
-    <row r="88" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" ht="15.75" customHeight="1">
       <c r="A88" s="27"/>
       <c r="B88" s="27"/>
       <c r="C88" s="27"/>
@@ -2698,7 +2647,7 @@
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
     </row>
-    <row r="89" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" ht="15.75" customHeight="1">
       <c r="A89" s="27"/>
       <c r="B89" s="27"/>
       <c r="C89" s="27"/>
@@ -2718,7 +2667,7 @@
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
     </row>
-    <row r="90" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" ht="15.75" customHeight="1">
       <c r="A90" s="27"/>
       <c r="B90" s="27"/>
       <c r="C90" s="27"/>
@@ -2738,7 +2687,7 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
     </row>
-    <row r="91" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" ht="15.75" customHeight="1">
       <c r="A91" s="27"/>
       <c r="B91" s="27"/>
       <c r="C91" s="27"/>
@@ -2758,7 +2707,7 @@
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
     </row>
-    <row r="92" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" ht="15.75" customHeight="1">
       <c r="A92" s="27"/>
       <c r="B92" s="27"/>
       <c r="C92" s="27"/>
@@ -2778,7 +2727,7 @@
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
     </row>
-    <row r="93" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" ht="15.75" customHeight="1">
       <c r="A93" s="27"/>
       <c r="B93" s="27"/>
       <c r="C93" s="27"/>
@@ -2798,7 +2747,7 @@
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
     </row>
-    <row r="94" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" ht="15.75" customHeight="1">
       <c r="A94" s="28"/>
       <c r="B94" s="28"/>
       <c r="C94" s="28"/>
@@ -2818,912 +2767,912 @@
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
     </row>
-    <row r="95" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="1:18" ht="15.75" customHeight="1"/>
+    <row r="96" spans="1:18" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B73:B80 B16:B31 B36:B37 B39:B43 B48:B58 B63:B68 B10:B11 B3:B8" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -3743,18 +3692,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
   <dimension ref="A1:R94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="78.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="18.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3780,7 +3729,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -3808,9 +3757,9 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="27">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
@@ -3834,9 +3783,9 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="27">
       <c r="A4" s="7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B4" s="7">
         <v>4</v>
@@ -3860,9 +3809,9 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="67.5">
       <c r="A5" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B5" s="7">
         <v>3</v>
@@ -3886,9 +3835,9 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="54">
       <c r="A6" s="25" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B6" s="25">
         <v>4</v>
@@ -3912,9 +3861,9 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="67.5">
       <c r="A7" s="29" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B7" s="29">
         <v>3</v>
@@ -3938,9 +3887,9 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="108" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="108">
       <c r="A8" s="29" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B8" s="29">
         <v>4</v>
@@ -3964,9 +3913,9 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="94.5">
       <c r="A9" s="29" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B9" s="31">
         <v>5</v>
@@ -3990,7 +3939,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="14.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -4010,7 +3959,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="15" thickBot="1">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -4030,9 +3979,9 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="27.75" thickBot="1">
       <c r="A12" s="14" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B12" s="14">
         <f>SUM(B3:B11)</f>
@@ -4055,7 +4004,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="15" thickBot="1">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -4075,7 +4024,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="18.75" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -4099,7 +4048,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
@@ -4125,7 +4074,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="14.25">
       <c r="A16" s="17"/>
       <c r="B16" s="7"/>
       <c r="C16" s="18"/>
@@ -4145,7 +4094,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="14.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="9"/>
@@ -4165,7 +4114,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="14.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="9"/>
@@ -4185,7 +4134,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="14.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="9"/>
@@ -4205,7 +4154,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="14.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="9"/>
@@ -4225,7 +4174,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="14.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="9"/>
@@ -4245,7 +4194,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="14.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="9"/>
@@ -4265,7 +4214,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="14.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="9"/>
@@ -4285,7 +4234,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="14.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="9"/>
@@ -4305,7 +4254,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="14.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="9"/>
@@ -4325,7 +4274,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="14.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="9"/>
@@ -4345,7 +4294,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="14.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="9"/>
@@ -4365,7 +4314,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="14.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="9"/>
@@ -4385,7 +4334,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="14.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="9"/>
@@ -4405,7 +4354,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="14.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="9"/>
@@ -4425,7 +4374,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" ht="15" thickBot="1">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="9"/>
@@ -4445,9 +4394,9 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" ht="27.75" thickBot="1">
       <c r="A32" s="14" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B32" s="14">
         <f>SUM(B16:B31)</f>
@@ -4470,7 +4419,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="15" thickBot="1">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -4490,7 +4439,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" ht="18.75" thickBot="1">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -4514,7 +4463,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" ht="15.75" thickBot="1">
       <c r="A35" s="5" t="s">
         <v>2</v>
       </c>
@@ -4540,7 +4489,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="14.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="21"/>
@@ -4560,7 +4509,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="14.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="21"/>
@@ -4580,7 +4529,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="14.25">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="22"/>
@@ -4600,7 +4549,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="14.25">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="9"/>
@@ -4620,7 +4569,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="14.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="9"/>
@@ -4640,7 +4589,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="14.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="9"/>
@@ -4660,7 +4609,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="14.25">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="9"/>
@@ -4680,7 +4629,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" ht="15" thickBot="1">
       <c r="A43" s="23"/>
       <c r="B43" s="23"/>
       <c r="C43" s="24"/>
@@ -4700,9 +4649,9 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" ht="27.75" thickBot="1">
       <c r="A44" s="14" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B44" s="14">
         <f>SUM(B36:B43)</f>
@@ -4725,7 +4674,7 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" ht="15" thickBot="1">
       <c r="A45" s="16"/>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
@@ -4745,7 +4694,7 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" ht="18.75" thickBot="1">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -4769,7 +4718,7 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" ht="15.75" thickBot="1">
       <c r="A47" s="5" t="s">
         <v>2</v>
       </c>
@@ -4795,7 +4744,7 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" ht="14.25">
       <c r="A48" s="19"/>
       <c r="B48" s="19"/>
       <c r="C48" s="20"/>
@@ -4815,7 +4764,7 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" ht="14.25">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="9"/>
@@ -4835,7 +4784,7 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" ht="14.25">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="9"/>
@@ -4855,7 +4804,7 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" ht="14.25">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="9"/>
@@ -4875,7 +4824,7 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" ht="14.25">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="9"/>
@@ -4895,7 +4844,7 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" ht="14.25">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="9"/>
@@ -4915,7 +4864,7 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" ht="14.25">
       <c r="A54" s="25"/>
       <c r="B54" s="25"/>
       <c r="C54" s="26"/>
@@ -4935,7 +4884,7 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" ht="14.25">
       <c r="A55" s="25"/>
       <c r="B55" s="25"/>
       <c r="C55" s="26"/>
@@ -4955,7 +4904,7 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" ht="14.25">
       <c r="A56" s="25"/>
       <c r="B56" s="25"/>
       <c r="C56" s="26"/>
@@ -4975,7 +4924,7 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" ht="14.25">
       <c r="A57" s="25"/>
       <c r="B57" s="25"/>
       <c r="C57" s="26"/>
@@ -4995,7 +4944,7 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" ht="15" thickBot="1">
       <c r="A58" s="23"/>
       <c r="B58" s="23"/>
       <c r="C58" s="24"/>
@@ -5015,9 +4964,9 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" ht="27.75" thickBot="1">
       <c r="A59" s="14" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B59" s="14">
         <f>SUM(B48:B58)</f>
@@ -5040,7 +4989,7 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" ht="15" thickBot="1">
       <c r="A60" s="16"/>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
@@ -5060,7 +5009,7 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" ht="18.75" thickBot="1">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
@@ -5084,7 +5033,7 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" ht="15.75" thickBot="1">
       <c r="A62" s="5" t="s">
         <v>2</v>
       </c>
@@ -5110,7 +5059,7 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" ht="14.25">
       <c r="A63" s="19"/>
       <c r="B63" s="19"/>
       <c r="C63" s="20"/>
@@ -5130,7 +5079,7 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" ht="14.25">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="9"/>
@@ -5150,7 +5099,7 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
     </row>
-    <row r="65" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" ht="14.25">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="9"/>
@@ -5170,7 +5119,7 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
     </row>
-    <row r="66" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" ht="14.25">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="9"/>
@@ -5190,7 +5139,7 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
     </row>
-    <row r="67" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" ht="14.25">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="9"/>
@@ -5210,7 +5159,7 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:18" ht="15" thickBot="1">
       <c r="A68" s="23"/>
       <c r="B68" s="23"/>
       <c r="C68" s="24"/>
@@ -5230,9 +5179,9 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
     </row>
-    <row r="69" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:18" ht="27.75" thickBot="1">
       <c r="A69" s="14" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B69" s="14">
         <f>SUM(B63:B68)</f>
@@ -5255,7 +5204,7 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
     </row>
-    <row r="70" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" ht="15" thickBot="1">
       <c r="A70" s="16"/>
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
@@ -5275,7 +5224,7 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" ht="18.75" thickBot="1">
       <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
@@ -5299,7 +5248,7 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
-    <row r="72" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:18" ht="15.75" thickBot="1">
       <c r="A72" s="5" t="s">
         <v>2</v>
       </c>
@@ -5325,7 +5274,7 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" ht="14.25">
       <c r="A73" s="19"/>
       <c r="B73" s="19"/>
       <c r="C73" s="20"/>
@@ -5345,7 +5294,7 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
-    <row r="74" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" ht="14.25">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="9"/>
@@ -5365,7 +5314,7 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
     </row>
-    <row r="75" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" ht="14.25">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="9"/>
@@ -5385,7 +5334,7 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
     </row>
-    <row r="76" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" ht="14.25">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="9"/>
@@ -5405,7 +5354,7 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
     </row>
-    <row r="77" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" ht="14.25">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="9"/>
@@ -5425,7 +5374,7 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" ht="14.25">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="9"/>
@@ -5445,7 +5394,7 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
     </row>
-    <row r="79" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" ht="14.25">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="9"/>
@@ -5465,7 +5414,7 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
     </row>
-    <row r="80" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:18" ht="15" thickBot="1">
       <c r="A80" s="23"/>
       <c r="B80" s="23"/>
       <c r="C80" s="24"/>
@@ -5485,9 +5434,9 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
     </row>
-    <row r="81" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:18" ht="27.75" thickBot="1">
       <c r="A81" s="14" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B81" s="14">
         <f>SUM(B73:B80)</f>
@@ -5510,7 +5459,7 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
     </row>
-    <row r="82" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" ht="14.25">
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
@@ -5530,7 +5479,7 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
     </row>
-    <row r="83" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" ht="14.25">
       <c r="A83" s="27"/>
       <c r="B83" s="27"/>
       <c r="C83" s="27"/>
@@ -5550,7 +5499,7 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
     </row>
-    <row r="84" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" ht="14.25">
       <c r="A84" s="27"/>
       <c r="B84" s="27"/>
       <c r="C84" s="27"/>
@@ -5570,7 +5519,7 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
     </row>
-    <row r="85" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" ht="14.25">
       <c r="A85" s="27"/>
       <c r="B85" s="27"/>
       <c r="C85" s="27"/>
@@ -5590,7 +5539,7 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
     </row>
-    <row r="86" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" ht="14.25">
       <c r="A86" s="27"/>
       <c r="B86" s="27"/>
       <c r="C86" s="27"/>
@@ -5610,7 +5559,7 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
     </row>
-    <row r="87" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" ht="14.25">
       <c r="A87" s="27"/>
       <c r="B87" s="27"/>
       <c r="C87" s="27"/>
@@ -5630,7 +5579,7 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
     </row>
-    <row r="88" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" ht="14.25">
       <c r="A88" s="27"/>
       <c r="B88" s="27"/>
       <c r="C88" s="27"/>
@@ -5650,7 +5599,7 @@
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
     </row>
-    <row r="89" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" ht="14.25">
       <c r="A89" s="27"/>
       <c r="B89" s="27"/>
       <c r="C89" s="27"/>
@@ -5670,7 +5619,7 @@
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
     </row>
-    <row r="90" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" ht="14.25">
       <c r="A90" s="27"/>
       <c r="B90" s="27"/>
       <c r="C90" s="27"/>
@@ -5690,7 +5639,7 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
     </row>
-    <row r="91" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" ht="14.25">
       <c r="A91" s="27"/>
       <c r="B91" s="27"/>
       <c r="C91" s="27"/>
@@ -5710,7 +5659,7 @@
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
     </row>
-    <row r="92" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" ht="14.25">
       <c r="A92" s="27"/>
       <c r="B92" s="27"/>
       <c r="C92" s="27"/>
@@ -5730,7 +5679,7 @@
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
     </row>
-    <row r="93" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" ht="14.25">
       <c r="A93" s="27"/>
       <c r="B93" s="27"/>
       <c r="C93" s="27"/>
@@ -5750,7 +5699,7 @@
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
     </row>
-    <row r="94" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" ht="14.25">
       <c r="A94" s="28"/>
       <c r="B94" s="28"/>
       <c r="C94" s="28"/>
@@ -5786,20 +5735,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716E2DDB-6361-470B-ACF3-8FDF9046203A}">
-  <dimension ref="A1:R94"/>
+  <dimension ref="A1:R95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="78.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="18.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5825,7 +5774,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -5853,9 +5802,2108 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="94.5">
       <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>43906</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" ht="54">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8">
+        <v>43906</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" ht="67.5">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8">
+        <v>43907</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" ht="81">
+      <c r="A6" s="25" t="s">
         <v>12</v>
+      </c>
+      <c r="B6" s="25">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8">
+        <v>43908</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" ht="67.5">
+      <c r="A7" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="29">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11">
+        <v>43909</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" ht="108">
+      <c r="A8" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="29">
+        <v>2</v>
+      </c>
+      <c r="C8" s="11">
+        <v>43910</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" ht="94.5">
+      <c r="A9" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="31">
+        <v>3</v>
+      </c>
+      <c r="C9" s="11">
+        <v>43911</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" ht="81">
+      <c r="A10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
+        <v>43913</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" ht="14.25">
+      <c r="A11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="7">
+        <v>4</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+    </row>
+    <row r="12" spans="1:18" ht="14.25">
+      <c r="A12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="7">
+        <v>4</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+    </row>
+    <row r="13" spans="1:18" ht="27">
+      <c r="A13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="14">
+        <f>SUM(B3:B12)</f>
+        <v>23</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+    </row>
+    <row r="14" spans="1:18" ht="14.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+    </row>
+    <row r="15" spans="1:18" ht="18">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+    </row>
+    <row r="16" spans="1:18" ht="15">
+      <c r="A16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+    </row>
+    <row r="17" spans="1:18" ht="14.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+    </row>
+    <row r="18" spans="1:18" ht="14.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+    </row>
+    <row r="19" spans="1:18" ht="14.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+    </row>
+    <row r="20" spans="1:18" ht="14.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+    </row>
+    <row r="21" spans="1:18" ht="14.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+    </row>
+    <row r="22" spans="1:18" ht="14.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+    </row>
+    <row r="23" spans="1:18" ht="14.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+    </row>
+    <row r="24" spans="1:18" ht="14.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+    </row>
+    <row r="25" spans="1:18" ht="14.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+    </row>
+    <row r="26" spans="1:18" ht="14.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+    </row>
+    <row r="27" spans="1:18" ht="14.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+    </row>
+    <row r="28" spans="1:18" ht="14.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+    </row>
+    <row r="29" spans="1:18" ht="14.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+    </row>
+    <row r="30" spans="1:18" ht="14.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+    </row>
+    <row r="31" spans="1:18" ht="14.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+    </row>
+    <row r="32" spans="1:18" ht="14.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+    </row>
+    <row r="33" spans="1:18" ht="27">
+      <c r="A33" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="14">
+        <f>SUM(B17:B32)</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+    </row>
+    <row r="34" spans="1:18" ht="14.25">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+    </row>
+    <row r="35" spans="1:18" ht="18">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="2">
+        <v>3</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+    </row>
+    <row r="36" spans="1:18" ht="15">
+      <c r="A36" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+    </row>
+    <row r="37" spans="1:18" ht="14.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+    </row>
+    <row r="38" spans="1:18" ht="14.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+    </row>
+    <row r="39" spans="1:18" ht="14.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+    </row>
+    <row r="40" spans="1:18" ht="14.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+    </row>
+    <row r="41" spans="1:18" ht="14.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+    </row>
+    <row r="42" spans="1:18" ht="14.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+    </row>
+    <row r="43" spans="1:18" ht="14.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+    </row>
+    <row r="44" spans="1:18" ht="14.25">
+      <c r="A44" s="23"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+    </row>
+    <row r="45" spans="1:18" ht="27">
+      <c r="A45" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="14">
+        <f>SUM(B37:B44)</f>
+        <v>0</v>
+      </c>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+    </row>
+    <row r="46" spans="1:18" ht="14.25">
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+    </row>
+    <row r="47" spans="1:18" ht="18">
+      <c r="A47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="2">
+        <v>4</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+    </row>
+    <row r="48" spans="1:18" ht="15">
+      <c r="A48" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="10"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+    </row>
+    <row r="49" spans="1:18" ht="14.25">
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+    </row>
+    <row r="50" spans="1:18" ht="14.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+    </row>
+    <row r="51" spans="1:18" ht="14.25">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+    </row>
+    <row r="52" spans="1:18" ht="14.25">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+    </row>
+    <row r="53" spans="1:18" ht="14.25">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+    </row>
+    <row r="54" spans="1:18" ht="14.25">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+    </row>
+    <row r="55" spans="1:18" ht="14.25">
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+    </row>
+    <row r="56" spans="1:18" ht="14.25">
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+    </row>
+    <row r="57" spans="1:18" ht="14.25">
+      <c r="A57" s="25"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+    </row>
+    <row r="58" spans="1:18" ht="14.25">
+      <c r="A58" s="25"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+    </row>
+    <row r="59" spans="1:18" ht="14.25">
+      <c r="A59" s="23"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+    </row>
+    <row r="60" spans="1:18" ht="27">
+      <c r="A60" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60" s="14">
+        <f>SUM(B49:B59)</f>
+        <v>0</v>
+      </c>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4"/>
+    </row>
+    <row r="61" spans="1:18" ht="14.25">
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+    </row>
+    <row r="62" spans="1:18" ht="18">
+      <c r="A62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="2">
+        <v>5</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+    </row>
+    <row r="63" spans="1:18" ht="15">
+      <c r="A63" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="10"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4"/>
+    </row>
+    <row r="64" spans="1:18" ht="14.25">
+      <c r="A64" s="19"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4"/>
+    </row>
+    <row r="65" spans="1:18" ht="14.25">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4"/>
+    </row>
+    <row r="66" spans="1:18" ht="14.25">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4"/>
+    </row>
+    <row r="67" spans="1:18" ht="14.25">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="4"/>
+    </row>
+    <row r="68" spans="1:18" ht="14.25">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="4"/>
+    </row>
+    <row r="69" spans="1:18" ht="14.25">
+      <c r="A69" s="23"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="4"/>
+    </row>
+    <row r="70" spans="1:18" ht="27">
+      <c r="A70" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" s="14">
+        <f>SUM(B64:B69)</f>
+        <v>0</v>
+      </c>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4"/>
+    </row>
+    <row r="71" spans="1:18" ht="14.25">
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4"/>
+      <c r="R71" s="4"/>
+    </row>
+    <row r="72" spans="1:18" ht="18">
+      <c r="A72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="2">
+        <v>6</v>
+      </c>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4"/>
+    </row>
+    <row r="73" spans="1:18" ht="15">
+      <c r="A73" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" s="10"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="4"/>
+    </row>
+    <row r="74" spans="1:18" ht="14.25">
+      <c r="A74" s="19"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="4"/>
+    </row>
+    <row r="75" spans="1:18" ht="14.25">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+      <c r="R75" s="4"/>
+    </row>
+    <row r="76" spans="1:18" ht="14.25">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="4"/>
+    </row>
+    <row r="77" spans="1:18" ht="14.25">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4"/>
+    </row>
+    <row r="78" spans="1:18" ht="14.25">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="4"/>
+    </row>
+    <row r="79" spans="1:18" ht="14.25">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="4"/>
+    </row>
+    <row r="80" spans="1:18" ht="14.25">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="4"/>
+    </row>
+    <row r="81" spans="1:18" ht="14.25">
+      <c r="A81" s="23"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="4"/>
+    </row>
+    <row r="82" spans="1:18" ht="27">
+      <c r="A82" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B82" s="14">
+        <f>SUM(B74:B81)</f>
+        <v>0</v>
+      </c>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+      <c r="R82" s="4"/>
+    </row>
+    <row r="83" spans="1:18" ht="14.25">
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="4"/>
+      <c r="R83" s="4"/>
+    </row>
+    <row r="84" spans="1:18" ht="14.25">
+      <c r="A84" s="27"/>
+      <c r="B84" s="27"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="4"/>
+      <c r="Q84" s="4"/>
+      <c r="R84" s="4"/>
+    </row>
+    <row r="85" spans="1:18" ht="14.25">
+      <c r="A85" s="27"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="4"/>
+      <c r="Q85" s="4"/>
+      <c r="R85" s="4"/>
+    </row>
+    <row r="86" spans="1:18" ht="14.25">
+      <c r="A86" s="27"/>
+      <c r="B86" s="27"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="4"/>
+      <c r="Q86" s="4"/>
+      <c r="R86" s="4"/>
+    </row>
+    <row r="87" spans="1:18" ht="14.25">
+      <c r="A87" s="27"/>
+      <c r="B87" s="27"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="4"/>
+      <c r="Q87" s="4"/>
+      <c r="R87" s="4"/>
+    </row>
+    <row r="88" spans="1:18" ht="14.25">
+      <c r="A88" s="27"/>
+      <c r="B88" s="27"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4"/>
+      <c r="Q88" s="4"/>
+      <c r="R88" s="4"/>
+    </row>
+    <row r="89" spans="1:18" ht="14.25">
+      <c r="A89" s="27"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
+      <c r="Q89" s="4"/>
+      <c r="R89" s="4"/>
+    </row>
+    <row r="90" spans="1:18" ht="14.25">
+      <c r="A90" s="27"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="4"/>
+      <c r="Q90" s="4"/>
+      <c r="R90" s="4"/>
+    </row>
+    <row r="91" spans="1:18" ht="14.25">
+      <c r="A91" s="27"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4"/>
+      <c r="R91" s="4"/>
+    </row>
+    <row r="92" spans="1:18" ht="14.25">
+      <c r="A92" s="27"/>
+      <c r="B92" s="27"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="4"/>
+      <c r="Q92" s="4"/>
+      <c r="R92" s="4"/>
+    </row>
+    <row r="93" spans="1:18" ht="14.25">
+      <c r="A93" s="27"/>
+      <c r="B93" s="27"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
+      <c r="Q93" s="4"/>
+      <c r="R93" s="4"/>
+    </row>
+    <row r="94" spans="1:18" ht="14.25">
+      <c r="A94" s="27"/>
+      <c r="B94" s="27"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="27"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="4"/>
+      <c r="Q94" s="4"/>
+      <c r="R94" s="4"/>
+    </row>
+    <row r="95" spans="1:18" ht="14.25">
+      <c r="A95" s="28"/>
+      <c r="B95" s="28"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4"/>
+      <c r="R95" s="4"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B74:B81 B17:B32 B37:B38 B40:B44 B49:B59 B64:B69 B3:B8 B10:B12" xr:uid="{76F8C2A5-22FC-42B6-BF5F-FD1899EE52B8}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B13 B33 B45 B60 B70 B82" xr:uid="{BD151BE4-B931-4CBD-823B-9C753DC07C8D}">
+      <formula1>0</formula1>
+      <formula2>DureePeriode-1</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
+  <dimension ref="A1:R94"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="18.75" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" spans="1:18" ht="27">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
@@ -5879,9 +7927,9 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="27">
       <c r="A4" s="7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B4" s="7">
         <v>4</v>
@@ -5905,9 +7953,9 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="67.5">
       <c r="A5" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B5" s="7">
         <v>3</v>
@@ -5931,9 +7979,9 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="54">
       <c r="A6" s="25" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B6" s="25">
         <v>4</v>
@@ -5957,9 +8005,9 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="67.5">
       <c r="A7" s="29" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B7" s="29">
         <v>3</v>
@@ -5983,9 +8031,9 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="108" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="108">
       <c r="A8" s="29" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B8" s="29">
         <v>4</v>
@@ -6009,9 +8057,9 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="94.5">
       <c r="A9" s="29" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B9" s="31">
         <v>5</v>
@@ -6035,7 +8083,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="14.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -6055,7 +8103,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="15" thickBot="1">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -6075,9 +8123,9 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="27.75" thickBot="1">
       <c r="A12" s="14" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B12" s="14">
         <f>SUM(B3:B11)</f>
@@ -6100,7 +8148,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="15" thickBot="1">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -6120,7 +8168,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="18.75" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -6144,7 +8192,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
@@ -6170,7 +8218,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="14.25">
       <c r="A16" s="17"/>
       <c r="B16" s="7"/>
       <c r="C16" s="18"/>
@@ -6190,7 +8238,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="14.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="9"/>
@@ -6210,7 +8258,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="14.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="9"/>
@@ -6230,7 +8278,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="14.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="9"/>
@@ -6250,7 +8298,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="14.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="9"/>
@@ -6270,7 +8318,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="14.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="9"/>
@@ -6290,7 +8338,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="14.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="9"/>
@@ -6310,7 +8358,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="14.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="9"/>
@@ -6330,7 +8378,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="14.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="9"/>
@@ -6350,7 +8398,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="14.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="9"/>
@@ -6370,7 +8418,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="14.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="9"/>
@@ -6390,7 +8438,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="14.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="9"/>
@@ -6410,7 +8458,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="14.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="9"/>
@@ -6430,7 +8478,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="14.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="9"/>
@@ -6450,7 +8498,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="14.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="9"/>
@@ -6470,7 +8518,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" ht="15" thickBot="1">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="9"/>
@@ -6490,9 +8538,9 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" ht="27.75" thickBot="1">
       <c r="A32" s="14" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B32" s="14">
         <f>SUM(B16:B31)</f>
@@ -6515,7 +8563,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="15" thickBot="1">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -6535,7 +8583,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" ht="18.75" thickBot="1">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -6559,7 +8607,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" ht="15.75" thickBot="1">
       <c r="A35" s="5" t="s">
         <v>2</v>
       </c>
@@ -6585,7 +8633,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="14.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="21"/>
@@ -6605,7 +8653,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="14.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="21"/>
@@ -6625,7 +8673,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="14.25">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="22"/>
@@ -6645,7 +8693,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="14.25">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="9"/>
@@ -6665,7 +8713,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="14.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="9"/>
@@ -6685,7 +8733,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="14.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="9"/>
@@ -6705,7 +8753,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="14.25">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="9"/>
@@ -6725,7 +8773,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" ht="15" thickBot="1">
       <c r="A43" s="23"/>
       <c r="B43" s="23"/>
       <c r="C43" s="24"/>
@@ -6745,9 +8793,9 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" ht="27.75" thickBot="1">
       <c r="A44" s="14" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B44" s="14">
         <f>SUM(B36:B43)</f>
@@ -6770,7 +8818,7 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" ht="15" thickBot="1">
       <c r="A45" s="16"/>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
@@ -6790,7 +8838,7 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" ht="18.75" thickBot="1">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -6814,7 +8862,7 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" ht="15.75" thickBot="1">
       <c r="A47" s="5" t="s">
         <v>2</v>
       </c>
@@ -6840,7 +8888,7 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" ht="14.25">
       <c r="A48" s="19"/>
       <c r="B48" s="19"/>
       <c r="C48" s="20"/>
@@ -6860,7 +8908,7 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" ht="14.25">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="9"/>
@@ -6880,7 +8928,7 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" ht="14.25">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="9"/>
@@ -6900,7 +8948,7 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" ht="14.25">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="9"/>
@@ -6920,7 +8968,7 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" ht="14.25">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="9"/>
@@ -6940,7 +8988,7 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" ht="14.25">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="9"/>
@@ -6960,7 +9008,7 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" ht="14.25">
       <c r="A54" s="25"/>
       <c r="B54" s="25"/>
       <c r="C54" s="26"/>
@@ -6980,7 +9028,7 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" ht="14.25">
       <c r="A55" s="25"/>
       <c r="B55" s="25"/>
       <c r="C55" s="26"/>
@@ -7000,7 +9048,7 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" ht="14.25">
       <c r="A56" s="25"/>
       <c r="B56" s="25"/>
       <c r="C56" s="26"/>
@@ -7020,7 +9068,7 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" ht="14.25">
       <c r="A57" s="25"/>
       <c r="B57" s="25"/>
       <c r="C57" s="26"/>
@@ -7040,7 +9088,7 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" ht="15" thickBot="1">
       <c r="A58" s="23"/>
       <c r="B58" s="23"/>
       <c r="C58" s="24"/>
@@ -7060,9 +9108,9 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" ht="27.75" thickBot="1">
       <c r="A59" s="14" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B59" s="14">
         <f>SUM(B48:B58)</f>
@@ -7085,7 +9133,7 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" ht="15" thickBot="1">
       <c r="A60" s="16"/>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
@@ -7105,7 +9153,7 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" ht="18.75" thickBot="1">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
@@ -7129,7 +9177,7 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" ht="15.75" thickBot="1">
       <c r="A62" s="5" t="s">
         <v>2</v>
       </c>
@@ -7155,7 +9203,7 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" ht="14.25">
       <c r="A63" s="19"/>
       <c r="B63" s="19"/>
       <c r="C63" s="20"/>
@@ -7175,7 +9223,7 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" ht="14.25">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="9"/>
@@ -7195,7 +9243,7 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
     </row>
-    <row r="65" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" ht="14.25">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="9"/>
@@ -7215,7 +9263,7 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
     </row>
-    <row r="66" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" ht="14.25">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="9"/>
@@ -7235,7 +9283,7 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
     </row>
-    <row r="67" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" ht="14.25">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="9"/>
@@ -7255,7 +9303,7 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:18" ht="15" thickBot="1">
       <c r="A68" s="23"/>
       <c r="B68" s="23"/>
       <c r="C68" s="24"/>
@@ -7275,9 +9323,9 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
     </row>
-    <row r="69" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:18" ht="27.75" thickBot="1">
       <c r="A69" s="14" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B69" s="14">
         <f>SUM(B63:B68)</f>
@@ -7300,7 +9348,7 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
     </row>
-    <row r="70" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" ht="15" thickBot="1">
       <c r="A70" s="16"/>
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
@@ -7320,7 +9368,7 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" ht="18.75" thickBot="1">
       <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
@@ -7344,7 +9392,7 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
-    <row r="72" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:18" ht="15.75" thickBot="1">
       <c r="A72" s="5" t="s">
         <v>2</v>
       </c>
@@ -7370,7 +9418,7 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" ht="14.25">
       <c r="A73" s="19"/>
       <c r="B73" s="19"/>
       <c r="C73" s="20"/>
@@ -7390,7 +9438,7 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
-    <row r="74" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" ht="14.25">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="9"/>
@@ -7410,7 +9458,7 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
     </row>
-    <row r="75" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" ht="14.25">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="9"/>
@@ -7430,7 +9478,7 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
     </row>
-    <row r="76" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" ht="14.25">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="9"/>
@@ -7450,7 +9498,7 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
     </row>
-    <row r="77" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" ht="14.25">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="9"/>
@@ -7470,7 +9518,7 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" ht="14.25">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="9"/>
@@ -7490,7 +9538,7 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
     </row>
-    <row r="79" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" ht="14.25">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="9"/>
@@ -7510,7 +9558,7 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
     </row>
-    <row r="80" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:18" ht="15" thickBot="1">
       <c r="A80" s="23"/>
       <c r="B80" s="23"/>
       <c r="C80" s="24"/>
@@ -7530,9 +9578,9 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
     </row>
-    <row r="81" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:18" ht="27.75" thickBot="1">
       <c r="A81" s="14" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B81" s="14">
         <f>SUM(B73:B80)</f>
@@ -7555,7 +9603,7 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
     </row>
-    <row r="82" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" ht="14.25">
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
@@ -7575,7 +9623,7 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
     </row>
-    <row r="83" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" ht="14.25">
       <c r="A83" s="27"/>
       <c r="B83" s="27"/>
       <c r="C83" s="27"/>
@@ -7595,7 +9643,7 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
     </row>
-    <row r="84" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" ht="14.25">
       <c r="A84" s="27"/>
       <c r="B84" s="27"/>
       <c r="C84" s="27"/>
@@ -7615,7 +9663,7 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
     </row>
-    <row r="85" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" ht="14.25">
       <c r="A85" s="27"/>
       <c r="B85" s="27"/>
       <c r="C85" s="27"/>
@@ -7635,7 +9683,7 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
     </row>
-    <row r="86" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" ht="14.25">
       <c r="A86" s="27"/>
       <c r="B86" s="27"/>
       <c r="C86" s="27"/>
@@ -7655,7 +9703,7 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
     </row>
-    <row r="87" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" ht="14.25">
       <c r="A87" s="27"/>
       <c r="B87" s="27"/>
       <c r="C87" s="27"/>
@@ -7675,7 +9723,7 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
     </row>
-    <row r="88" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" ht="14.25">
       <c r="A88" s="27"/>
       <c r="B88" s="27"/>
       <c r="C88" s="27"/>
@@ -7695,7 +9743,7 @@
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
     </row>
-    <row r="89" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" ht="14.25">
       <c r="A89" s="27"/>
       <c r="B89" s="27"/>
       <c r="C89" s="27"/>
@@ -7715,7 +9763,7 @@
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
     </row>
-    <row r="90" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" ht="14.25">
       <c r="A90" s="27"/>
       <c r="B90" s="27"/>
       <c r="C90" s="27"/>
@@ -7735,7 +9783,7 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
     </row>
-    <row r="91" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" ht="14.25">
       <c r="A91" s="27"/>
       <c r="B91" s="27"/>
       <c r="C91" s="27"/>
@@ -7755,7 +9803,7 @@
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
     </row>
-    <row r="92" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" ht="14.25">
       <c r="A92" s="27"/>
       <c r="B92" s="27"/>
       <c r="C92" s="27"/>
@@ -7775,7 +9823,7 @@
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
     </row>
-    <row r="93" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" ht="14.25">
       <c r="A93" s="27"/>
       <c r="B93" s="27"/>
       <c r="C93" s="27"/>
@@ -7795,7 +9843,7 @@
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
     </row>
-    <row r="94" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" ht="14.25">
       <c r="A94" s="28"/>
       <c r="B94" s="28"/>
       <c r="C94" s="28"/>
@@ -7817,2051 +9865,6 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B73:B80 B16:B31 B36:B37 B39:B43 B48:B58 B63:B68 B10:B11 B3:B8" xr:uid="{76F8C2A5-22FC-42B6-BF5F-FD1899EE52B8}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B12 B32 B44 B59 B69 B81" xr:uid="{BD151BE4-B931-4CBD-823B-9C753DC07C8D}">
-      <formula1>0</formula1>
-      <formula2>DureePeriode-1</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
-  <dimension ref="A1:R94"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-    </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-    </row>
-    <row r="3" spans="1:18" ht="27" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8">
-        <v>43906</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-    </row>
-    <row r="4" spans="1:18" ht="27" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="7">
-        <v>4</v>
-      </c>
-      <c r="C4" s="8">
-        <v>43906</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-    </row>
-    <row r="5" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="7">
-        <v>3</v>
-      </c>
-      <c r="C5" s="8">
-        <v>43907</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-    </row>
-    <row r="6" spans="1:18" ht="54" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="25">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8">
-        <v>43908</v>
-      </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-    </row>
-    <row r="7" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="29">
-        <v>3</v>
-      </c>
-      <c r="C7" s="11">
-        <v>43909</v>
-      </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-    </row>
-    <row r="8" spans="1:18" ht="108" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="29">
-        <v>4</v>
-      </c>
-      <c r="C8" s="11">
-        <v>43910</v>
-      </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-    </row>
-    <row r="9" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="31">
-        <v>5</v>
-      </c>
-      <c r="C9" s="11">
-        <v>43911</v>
-      </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-    </row>
-    <row r="10" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-    </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-    </row>
-    <row r="12" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="14">
-        <f>SUM(B3:B11)</f>
-        <v>24</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-    </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-    </row>
-    <row r="14" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-    </row>
-    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-    </row>
-    <row r="16" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-    </row>
-    <row r="17" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-    </row>
-    <row r="18" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-    </row>
-    <row r="19" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-    </row>
-    <row r="20" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-    </row>
-    <row r="21" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-    </row>
-    <row r="22" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-    </row>
-    <row r="23" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-    </row>
-    <row r="24" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-    </row>
-    <row r="25" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-    </row>
-    <row r="26" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-    </row>
-    <row r="27" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-    </row>
-    <row r="28" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-    </row>
-    <row r="29" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-    </row>
-    <row r="30" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-    </row>
-    <row r="31" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-    </row>
-    <row r="32" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="14">
-        <f>SUM(B16:B31)</f>
-        <v>0</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-    </row>
-    <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-    </row>
-    <row r="34" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="2">
-        <v>3</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-    </row>
-    <row r="35" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-    </row>
-    <row r="36" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-    </row>
-    <row r="37" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-    </row>
-    <row r="38" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-    </row>
-    <row r="39" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
-    </row>
-    <row r="40" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-    </row>
-    <row r="41" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-    </row>
-    <row r="42" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-    </row>
-    <row r="43" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-    </row>
-    <row r="44" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="14">
-        <f>SUM(B36:B43)</f>
-        <v>0</v>
-      </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-    </row>
-    <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-    </row>
-    <row r="46" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="2">
-        <v>4</v>
-      </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-    </row>
-    <row r="47" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
-    </row>
-    <row r="48" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="4"/>
-    </row>
-    <row r="49" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
-    </row>
-    <row r="50" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="4"/>
-    </row>
-    <row r="51" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
-    </row>
-    <row r="52" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
-    </row>
-    <row r="53" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
-      <c r="R53" s="4"/>
-    </row>
-    <row r="54" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="4"/>
-    </row>
-    <row r="55" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A55" s="25"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
-      <c r="R55" s="4"/>
-    </row>
-    <row r="56" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A56" s="25"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
-    </row>
-    <row r="57" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A57" s="25"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="4"/>
-    </row>
-    <row r="58" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="23"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="4"/>
-    </row>
-    <row r="59" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" s="14">
-        <f>SUM(B48:B58)</f>
-        <v>0</v>
-      </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
-      <c r="R59" s="4"/>
-    </row>
-    <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="4"/>
-    </row>
-    <row r="61" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" s="2">
-        <v>5</v>
-      </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
-      <c r="Q61" s="4"/>
-      <c r="R61" s="4"/>
-    </row>
-    <row r="62" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="10"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-      <c r="O62" s="4"/>
-      <c r="P62" s="4"/>
-      <c r="Q62" s="4"/>
-      <c r="R62" s="4"/>
-    </row>
-    <row r="63" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="19"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="4"/>
-      <c r="R63" s="4"/>
-    </row>
-    <row r="64" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
-      <c r="O64" s="4"/>
-      <c r="P64" s="4"/>
-      <c r="Q64" s="4"/>
-      <c r="R64" s="4"/>
-    </row>
-    <row r="65" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4"/>
-      <c r="O65" s="4"/>
-      <c r="P65" s="4"/>
-      <c r="Q65" s="4"/>
-      <c r="R65" s="4"/>
-    </row>
-    <row r="66" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="4"/>
-      <c r="O66" s="4"/>
-      <c r="P66" s="4"/>
-      <c r="Q66" s="4"/>
-      <c r="R66" s="4"/>
-    </row>
-    <row r="67" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
-      <c r="N67" s="4"/>
-      <c r="O67" s="4"/>
-      <c r="P67" s="4"/>
-      <c r="Q67" s="4"/>
-      <c r="R67" s="4"/>
-    </row>
-    <row r="68" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="23"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="4"/>
-      <c r="O68" s="4"/>
-      <c r="P68" s="4"/>
-      <c r="Q68" s="4"/>
-      <c r="R68" s="4"/>
-    </row>
-    <row r="69" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69" s="14">
-        <f>SUM(B63:B68)</f>
-        <v>0</v>
-      </c>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
-      <c r="O69" s="4"/>
-      <c r="P69" s="4"/>
-      <c r="Q69" s="4"/>
-      <c r="R69" s="4"/>
-    </row>
-    <row r="70" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="16"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
-      <c r="O70" s="4"/>
-      <c r="P70" s="4"/>
-      <c r="Q70" s="4"/>
-      <c r="R70" s="4"/>
-    </row>
-    <row r="71" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" s="2">
-        <v>6</v>
-      </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4"/>
-      <c r="O71" s="4"/>
-      <c r="P71" s="4"/>
-      <c r="Q71" s="4"/>
-      <c r="R71" s="4"/>
-    </row>
-    <row r="72" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="10"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="4"/>
-      <c r="O72" s="4"/>
-      <c r="P72" s="4"/>
-      <c r="Q72" s="4"/>
-      <c r="R72" s="4"/>
-    </row>
-    <row r="73" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A73" s="19"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="4"/>
-      <c r="O73" s="4"/>
-      <c r="P73" s="4"/>
-      <c r="Q73" s="4"/>
-      <c r="R73" s="4"/>
-    </row>
-    <row r="74" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="4"/>
-      <c r="N74" s="4"/>
-      <c r="O74" s="4"/>
-      <c r="P74" s="4"/>
-      <c r="Q74" s="4"/>
-      <c r="R74" s="4"/>
-    </row>
-    <row r="75" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
-      <c r="N75" s="4"/>
-      <c r="O75" s="4"/>
-      <c r="P75" s="4"/>
-      <c r="Q75" s="4"/>
-      <c r="R75" s="4"/>
-    </row>
-    <row r="76" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="4"/>
-      <c r="O76" s="4"/>
-      <c r="P76" s="4"/>
-      <c r="Q76" s="4"/>
-      <c r="R76" s="4"/>
-    </row>
-    <row r="77" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="4"/>
-      <c r="O77" s="4"/>
-      <c r="P77" s="4"/>
-      <c r="Q77" s="4"/>
-      <c r="R77" s="4"/>
-    </row>
-    <row r="78" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4"/>
-      <c r="N78" s="4"/>
-      <c r="O78" s="4"/>
-      <c r="P78" s="4"/>
-      <c r="Q78" s="4"/>
-      <c r="R78" s="4"/>
-    </row>
-    <row r="79" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
-      <c r="M79" s="4"/>
-      <c r="N79" s="4"/>
-      <c r="O79" s="4"/>
-      <c r="P79" s="4"/>
-      <c r="Q79" s="4"/>
-      <c r="R79" s="4"/>
-    </row>
-    <row r="80" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="23"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
-      <c r="N80" s="4"/>
-      <c r="O80" s="4"/>
-      <c r="P80" s="4"/>
-      <c r="Q80" s="4"/>
-      <c r="R80" s="4"/>
-    </row>
-    <row r="81" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B81" s="14">
-        <f>SUM(B73:B80)</f>
-        <v>0</v>
-      </c>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
-      <c r="O81" s="4"/>
-      <c r="P81" s="4"/>
-      <c r="Q81" s="4"/>
-      <c r="R81" s="4"/>
-    </row>
-    <row r="82" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A82" s="16"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
-      <c r="O82" s="4"/>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="4"/>
-      <c r="R82" s="4"/>
-    </row>
-    <row r="83" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A83" s="27"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
-      <c r="N83" s="4"/>
-      <c r="O83" s="4"/>
-      <c r="P83" s="4"/>
-      <c r="Q83" s="4"/>
-      <c r="R83" s="4"/>
-    </row>
-    <row r="84" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A84" s="27"/>
-      <c r="B84" s="27"/>
-      <c r="C84" s="27"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-      <c r="M84" s="4"/>
-      <c r="N84" s="4"/>
-      <c r="O84" s="4"/>
-      <c r="P84" s="4"/>
-      <c r="Q84" s="4"/>
-      <c r="R84" s="4"/>
-    </row>
-    <row r="85" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A85" s="27"/>
-      <c r="B85" s="27"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
-      <c r="M85" s="4"/>
-      <c r="N85" s="4"/>
-      <c r="O85" s="4"/>
-      <c r="P85" s="4"/>
-      <c r="Q85" s="4"/>
-      <c r="R85" s="4"/>
-    </row>
-    <row r="86" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A86" s="27"/>
-      <c r="B86" s="27"/>
-      <c r="C86" s="27"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
-      <c r="M86" s="4"/>
-      <c r="N86" s="4"/>
-      <c r="O86" s="4"/>
-      <c r="P86" s="4"/>
-      <c r="Q86" s="4"/>
-      <c r="R86" s="4"/>
-    </row>
-    <row r="87" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A87" s="27"/>
-      <c r="B87" s="27"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
-      <c r="M87" s="4"/>
-      <c r="N87" s="4"/>
-      <c r="O87" s="4"/>
-      <c r="P87" s="4"/>
-      <c r="Q87" s="4"/>
-      <c r="R87" s="4"/>
-    </row>
-    <row r="88" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A88" s="27"/>
-      <c r="B88" s="27"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
-      <c r="N88" s="4"/>
-      <c r="O88" s="4"/>
-      <c r="P88" s="4"/>
-      <c r="Q88" s="4"/>
-      <c r="R88" s="4"/>
-    </row>
-    <row r="89" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A89" s="27"/>
-      <c r="B89" s="27"/>
-      <c r="C89" s="27"/>
-      <c r="D89" s="27"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
-      <c r="M89" s="4"/>
-      <c r="N89" s="4"/>
-      <c r="O89" s="4"/>
-      <c r="P89" s="4"/>
-      <c r="Q89" s="4"/>
-      <c r="R89" s="4"/>
-    </row>
-    <row r="90" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A90" s="27"/>
-      <c r="B90" s="27"/>
-      <c r="C90" s="27"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
-      <c r="M90" s="4"/>
-      <c r="N90" s="4"/>
-      <c r="O90" s="4"/>
-      <c r="P90" s="4"/>
-      <c r="Q90" s="4"/>
-      <c r="R90" s="4"/>
-    </row>
-    <row r="91" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A91" s="27"/>
-      <c r="B91" s="27"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
-      <c r="I91" s="4"/>
-      <c r="J91" s="4"/>
-      <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
-      <c r="M91" s="4"/>
-      <c r="N91" s="4"/>
-      <c r="O91" s="4"/>
-      <c r="P91" s="4"/>
-      <c r="Q91" s="4"/>
-      <c r="R91" s="4"/>
-    </row>
-    <row r="92" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A92" s="27"/>
-      <c r="B92" s="27"/>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
-      <c r="M92" s="4"/>
-      <c r="N92" s="4"/>
-      <c r="O92" s="4"/>
-      <c r="P92" s="4"/>
-      <c r="Q92" s="4"/>
-      <c r="R92" s="4"/>
-    </row>
-    <row r="93" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A93" s="27"/>
-      <c r="B93" s="27"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
-      <c r="M93" s="4"/>
-      <c r="N93" s="4"/>
-      <c r="O93" s="4"/>
-      <c r="P93" s="4"/>
-      <c r="Q93" s="4"/>
-      <c r="R93" s="4"/>
-    </row>
-    <row r="94" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A94" s="28"/>
-      <c r="B94" s="28"/>
-      <c r="C94" s="28"/>
-      <c r="D94" s="28"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
-      <c r="M94" s="4"/>
-      <c r="N94" s="4"/>
-      <c r="O94" s="4"/>
-      <c r="P94" s="4"/>
-      <c r="Q94" s="4"/>
-      <c r="R94" s="4"/>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
     <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B73:B80 B16:B31 B36:B37 B39:B43 B48:B58 B63:B68 B10:B11 B3:B8" xr:uid="{64471589-AB55-4AF0-A3CB-2C4DA302E1FD}">
       <formula1>0</formula1>
     </dataValidation>

--- a/LM_Journal_Travail.xlsx
+++ b/LM_Journal_Travail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{0642F9AB-233E-4B2A-BEB6-32EF85E6BF64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F9142300-1FCD-4F40-A10D-C973D45D6EB1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A221DC9D-07F9-4167-9A55-F253FBA85652}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Hans Morsch" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_Toc493855087" localSheetId="3">'Hans Morsch'!$A$12</definedName>
     <definedName name="DiagrammePlanifBas">#REF!</definedName>
     <definedName name="DiagrammePlanifHaut">#REF!</definedName>
     <definedName name="DiagrammeRealBas">#REF!</definedName>
@@ -28,14 +29,12 @@
     <definedName name="NBLecons">#REF!</definedName>
     <definedName name="TachesPlanifiees">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="34">
   <si>
     <t>Jalon</t>
   </si>
@@ -141,6 +140,27 @@
   <si>
     <t>Mis à jour et relecture du WBS</t>
   </si>
+  <si>
+    <t>Nous avons commencé à élaborer l'étude de notre projet.  Nous étions tous sur le document. Monsieur Berger écrivait et les autres donnaient des informations et se faisait des réflexions sur notre projet. L'apport de chacun a permis de mener à bien la rédaction de l'étude.</t>
+  </si>
+  <si>
+    <t>Exigences du système</t>
+  </si>
+  <si>
+    <t>Lien avec la stratégie et mise en œuvre des prescrip-tions</t>
+  </si>
+  <si>
+    <t>Création et mise à jour des exigences du systèmes</t>
+  </si>
+  <si>
+    <t>Création du contenue</t>
+  </si>
+  <si>
+    <t>Risques</t>
+  </si>
+  <si>
+    <t>Création et mise à jour des risques</t>
+  </si>
 </sst>
 </file>
 
@@ -150,7 +170,7 @@
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
     <numFmt numFmtId="165" formatCode="dd\.mm\.yy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -198,6 +218,12 @@
       <b/>
       <sz val="10"/>
       <name val="Century Gothic"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -406,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -494,6 +520,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -716,11 +748,11 @@
   </sheetPr>
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="6.140625" customWidth="1"/>
@@ -729,7 +761,7 @@
     <col min="5" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75" thickBot="1">
+    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -755,7 +787,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -783,7 +815,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="94.5">
+    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -811,7 +843,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="54">
+    <row r="4" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -839,7 +871,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="54">
+    <row r="5" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -867,7 +899,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="81">
+    <row r="6" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>12</v>
       </c>
@@ -895,7 +927,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="54">
+    <row r="7" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
@@ -923,7 +955,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="94.5">
+    <row r="8" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>16</v>
       </c>
@@ -951,7 +983,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="81">
+    <row r="9" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
@@ -979,7 +1011,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="67.5">
+    <row r="10" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -1007,7 +1039,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" thickBot="1">
+    <row r="11" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -1027,7 +1059,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" thickBot="1">
+    <row r="12" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>22</v>
       </c>
@@ -1052,7 +1084,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" thickBot="1">
+    <row r="13" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -1072,7 +1104,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="18.75" thickBot="1">
+    <row r="14" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1096,7 +1128,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="15.75" thickBot="1">
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
@@ -1122,7 +1154,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="14.25">
+    <row r="16" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="7"/>
       <c r="C16" s="18"/>
@@ -1142,7 +1174,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="14.25">
+    <row r="17" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="9"/>
@@ -1162,7 +1194,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="14.25">
+    <row r="18" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="9"/>
@@ -1182,7 +1214,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="14.25">
+    <row r="19" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="9"/>
@@ -1202,7 +1234,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="14.25">
+    <row r="20" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="9"/>
@@ -1222,7 +1254,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="15.75" customHeight="1">
+    <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="9"/>
@@ -1242,7 +1274,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" ht="15.75" customHeight="1">
+    <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="9"/>
@@ -1262,7 +1294,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" ht="15.75" customHeight="1">
+    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="9"/>
@@ -1282,7 +1314,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="15.75" customHeight="1">
+    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="9"/>
@@ -1302,7 +1334,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18" ht="15.75" customHeight="1">
+    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="9"/>
@@ -1322,7 +1354,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" ht="15.75" customHeight="1">
+    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="9"/>
@@ -1342,7 +1374,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="15.75" customHeight="1">
+    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="9"/>
@@ -1362,7 +1394,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18" ht="15.75" customHeight="1">
+    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="9"/>
@@ -1382,7 +1414,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="15.75" customHeight="1">
+    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="9"/>
@@ -1402,7 +1434,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="1:18" ht="15.75" customHeight="1">
+    <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="9"/>
@@ -1422,7 +1454,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="15.75" customHeight="1">
+    <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="9"/>
@@ -1442,7 +1474,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="15.75" customHeight="1">
+    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>22</v>
       </c>
@@ -1467,7 +1499,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="15.75" customHeight="1">
+    <row r="33" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -1487,7 +1519,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="15.75" customHeight="1">
+    <row r="34" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -1511,7 +1543,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" ht="15.75" customHeight="1">
+    <row r="35" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>2</v>
       </c>
@@ -1537,7 +1569,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" ht="15.75" customHeight="1">
+    <row r="36" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="21"/>
@@ -1557,7 +1589,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" ht="15.75" customHeight="1">
+    <row r="37" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="21"/>
@@ -1577,7 +1609,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18" ht="15.75" customHeight="1">
+    <row r="38" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="22"/>
@@ -1597,7 +1629,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" ht="15.75" customHeight="1">
+    <row r="39" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="9"/>
@@ -1617,7 +1649,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" ht="15.75" customHeight="1">
+    <row r="40" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="9"/>
@@ -1637,7 +1669,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="1:18" ht="15.75" customHeight="1">
+    <row r="41" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="9"/>
@@ -1657,7 +1689,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" spans="1:18" ht="15.75" customHeight="1">
+    <row r="42" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="9"/>
@@ -1677,7 +1709,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18" ht="15.75" customHeight="1">
+    <row r="43" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="23"/>
       <c r="B43" s="23"/>
       <c r="C43" s="24"/>
@@ -1697,7 +1729,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:18" ht="15.75" customHeight="1">
+    <row r="44" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
         <v>22</v>
       </c>
@@ -1722,7 +1754,7 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18" ht="15.75" customHeight="1">
+    <row r="45" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="16"/>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
@@ -1742,7 +1774,7 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18" ht="15.75" customHeight="1">
+    <row r="46" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -1766,7 +1798,7 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18" ht="15.75" customHeight="1">
+    <row r="47" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>2</v>
       </c>
@@ -1792,7 +1824,7 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" ht="15.75" customHeight="1">
+    <row r="48" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="19"/>
       <c r="B48" s="19"/>
       <c r="C48" s="20"/>
@@ -1812,7 +1844,7 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" ht="15.75" customHeight="1">
+    <row r="49" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="9"/>
@@ -1832,7 +1864,7 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18" ht="15.75" customHeight="1">
+    <row r="50" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="9"/>
@@ -1852,7 +1884,7 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" ht="15.75" customHeight="1">
+    <row r="51" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="9"/>
@@ -1872,7 +1904,7 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18" ht="15.75" customHeight="1">
+    <row r="52" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="9"/>
@@ -1892,7 +1924,7 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18" ht="15.75" customHeight="1">
+    <row r="53" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="9"/>
@@ -1912,7 +1944,7 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="1:18" ht="15.75" customHeight="1">
+    <row r="54" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="25"/>
       <c r="B54" s="25"/>
       <c r="C54" s="26"/>
@@ -1932,7 +1964,7 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18" ht="15.75" customHeight="1">
+    <row r="55" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="25"/>
       <c r="B55" s="25"/>
       <c r="C55" s="26"/>
@@ -1952,7 +1984,7 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18" ht="15.75" customHeight="1">
+    <row r="56" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="25"/>
       <c r="B56" s="25"/>
       <c r="C56" s="26"/>
@@ -1972,7 +2004,7 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="1:18" ht="15.75" customHeight="1">
+    <row r="57" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="25"/>
       <c r="B57" s="25"/>
       <c r="C57" s="26"/>
@@ -1992,7 +2024,7 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="1:18" ht="15.75" customHeight="1">
+    <row r="58" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="23"/>
       <c r="B58" s="23"/>
       <c r="C58" s="24"/>
@@ -2012,7 +2044,7 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18" ht="15.75" customHeight="1">
+    <row r="59" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
         <v>22</v>
       </c>
@@ -2037,7 +2069,7 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:18" ht="15.75" customHeight="1">
+    <row r="60" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="16"/>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
@@ -2057,7 +2089,7 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:18" ht="15.75" customHeight="1">
+    <row r="61" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
@@ -2081,7 +2113,7 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18" ht="15.75" customHeight="1">
+    <row r="62" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>2</v>
       </c>
@@ -2107,7 +2139,7 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" ht="15.75" customHeight="1">
+    <row r="63" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="19"/>
       <c r="B63" s="19"/>
       <c r="C63" s="20"/>
@@ -2127,7 +2159,7 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" spans="1:18" ht="15.75" customHeight="1">
+    <row r="64" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="9"/>
@@ -2147,7 +2179,7 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
     </row>
-    <row r="65" spans="1:18" ht="15.75" customHeight="1">
+    <row r="65" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="9"/>
@@ -2167,7 +2199,7 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
     </row>
-    <row r="66" spans="1:18" ht="15.75" customHeight="1">
+    <row r="66" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="9"/>
@@ -2187,7 +2219,7 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
     </row>
-    <row r="67" spans="1:18" ht="15.75" customHeight="1">
+    <row r="67" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="9"/>
@@ -2207,7 +2239,7 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" ht="15.75" customHeight="1">
+    <row r="68" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="23"/>
       <c r="B68" s="23"/>
       <c r="C68" s="24"/>
@@ -2227,7 +2259,7 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
     </row>
-    <row r="69" spans="1:18" ht="15.75" customHeight="1">
+    <row r="69" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
         <v>22</v>
       </c>
@@ -2252,7 +2284,7 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
     </row>
-    <row r="70" spans="1:18" ht="15.75" customHeight="1">
+    <row r="70" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="16"/>
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
@@ -2272,7 +2304,7 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18" ht="15.75" customHeight="1">
+    <row r="71" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
@@ -2296,7 +2328,7 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
-    <row r="72" spans="1:18" ht="15.75" customHeight="1">
+    <row r="72" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>2</v>
       </c>
@@ -2322,7 +2354,7 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18" ht="15.75" customHeight="1">
+    <row r="73" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="19"/>
       <c r="B73" s="19"/>
       <c r="C73" s="20"/>
@@ -2342,7 +2374,7 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
-    <row r="74" spans="1:18" ht="15.75" customHeight="1">
+    <row r="74" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="9"/>
@@ -2362,7 +2394,7 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
     </row>
-    <row r="75" spans="1:18" ht="15.75" customHeight="1">
+    <row r="75" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="9"/>
@@ -2382,7 +2414,7 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
     </row>
-    <row r="76" spans="1:18" ht="15.75" customHeight="1">
+    <row r="76" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="9"/>
@@ -2402,7 +2434,7 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
     </row>
-    <row r="77" spans="1:18" ht="15.75" customHeight="1">
+    <row r="77" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="9"/>
@@ -2422,7 +2454,7 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:18" ht="15.75" customHeight="1">
+    <row r="78" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="9"/>
@@ -2442,7 +2474,7 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
     </row>
-    <row r="79" spans="1:18" ht="15.75" customHeight="1">
+    <row r="79" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="9"/>
@@ -2462,7 +2494,7 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
     </row>
-    <row r="80" spans="1:18" ht="15.75" customHeight="1">
+    <row r="80" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="23"/>
       <c r="B80" s="23"/>
       <c r="C80" s="24"/>
@@ -2482,7 +2514,7 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
     </row>
-    <row r="81" spans="1:18" ht="15.75" customHeight="1">
+    <row r="81" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="14" t="s">
         <v>22</v>
       </c>
@@ -2507,7 +2539,7 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
     </row>
-    <row r="82" spans="1:18" ht="15.75" customHeight="1">
+    <row r="82" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
@@ -2527,7 +2559,7 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
     </row>
-    <row r="83" spans="1:18" ht="15.75" customHeight="1">
+    <row r="83" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="27"/>
       <c r="B83" s="27"/>
       <c r="C83" s="27"/>
@@ -2547,7 +2579,7 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
     </row>
-    <row r="84" spans="1:18" ht="15.75" customHeight="1">
+    <row r="84" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="27"/>
       <c r="B84" s="27"/>
       <c r="C84" s="27"/>
@@ -2567,7 +2599,7 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
     </row>
-    <row r="85" spans="1:18" ht="15.75" customHeight="1">
+    <row r="85" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="27"/>
       <c r="B85" s="27"/>
       <c r="C85" s="27"/>
@@ -2587,7 +2619,7 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
     </row>
-    <row r="86" spans="1:18" ht="15.75" customHeight="1">
+    <row r="86" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="27"/>
       <c r="B86" s="27"/>
       <c r="C86" s="27"/>
@@ -2607,7 +2639,7 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
     </row>
-    <row r="87" spans="1:18" ht="15.75" customHeight="1">
+    <row r="87" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="27"/>
       <c r="B87" s="27"/>
       <c r="C87" s="27"/>
@@ -2627,7 +2659,7 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
     </row>
-    <row r="88" spans="1:18" ht="15.75" customHeight="1">
+    <row r="88" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="27"/>
       <c r="B88" s="27"/>
       <c r="C88" s="27"/>
@@ -2647,7 +2679,7 @@
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
     </row>
-    <row r="89" spans="1:18" ht="15.75" customHeight="1">
+    <row r="89" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="27"/>
       <c r="B89" s="27"/>
       <c r="C89" s="27"/>
@@ -2667,7 +2699,7 @@
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
     </row>
-    <row r="90" spans="1:18" ht="15.75" customHeight="1">
+    <row r="90" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="27"/>
       <c r="B90" s="27"/>
       <c r="C90" s="27"/>
@@ -2687,7 +2719,7 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
     </row>
-    <row r="91" spans="1:18" ht="15.75" customHeight="1">
+    <row r="91" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="27"/>
       <c r="B91" s="27"/>
       <c r="C91" s="27"/>
@@ -2707,7 +2739,7 @@
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
     </row>
-    <row r="92" spans="1:18" ht="15.75" customHeight="1">
+    <row r="92" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="27"/>
       <c r="B92" s="27"/>
       <c r="C92" s="27"/>
@@ -2727,7 +2759,7 @@
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
     </row>
-    <row r="93" spans="1:18" ht="15.75" customHeight="1">
+    <row r="93" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="27"/>
       <c r="B93" s="27"/>
       <c r="C93" s="27"/>
@@ -2747,7 +2779,7 @@
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
     </row>
-    <row r="94" spans="1:18" ht="15.75" customHeight="1">
+    <row r="94" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="28"/>
       <c r="B94" s="28"/>
       <c r="C94" s="28"/>
@@ -2767,912 +2799,912 @@
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
     </row>
-    <row r="95" spans="1:18" ht="15.75" customHeight="1"/>
-    <row r="96" spans="1:18" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="95" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B73:B80 B16:B31 B36:B37 B39:B43 B48:B58 B63:B68 B10:B11 B3:B8" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -3692,18 +3724,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
   <dimension ref="A1:R94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="78.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75" thickBot="1">
+    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3729,7 +3761,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -3757,7 +3789,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="27">
+    <row r="3" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -3783,7 +3815,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="27">
+    <row r="4" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -3809,7 +3841,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="67.5">
+    <row r="5" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -3835,7 +3867,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="54">
+    <row r="6" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>12</v>
       </c>
@@ -3861,7 +3893,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="67.5">
+    <row r="7" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
@@ -3887,7 +3919,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="108">
+    <row r="8" spans="1:18" ht="108" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>16</v>
       </c>
@@ -3913,7 +3945,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="94.5">
+    <row r="9" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
@@ -3939,7 +3971,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="14.25">
+    <row r="10" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -3959,7 +3991,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1">
+    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -3979,7 +4011,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="27.75" thickBot="1">
+    <row r="12" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>22</v>
       </c>
@@ -4004,7 +4036,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1">
+    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -4024,7 +4056,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="18.75" thickBot="1">
+    <row r="14" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -4048,7 +4080,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="15.75" thickBot="1">
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
@@ -4074,7 +4106,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="14.25">
+    <row r="16" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="7"/>
       <c r="C16" s="18"/>
@@ -4094,7 +4126,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="14.25">
+    <row r="17" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="9"/>
@@ -4114,7 +4146,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="14.25">
+    <row r="18" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="9"/>
@@ -4134,7 +4166,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="14.25">
+    <row r="19" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="9"/>
@@ -4154,7 +4186,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="14.25">
+    <row r="20" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="9"/>
@@ -4174,7 +4206,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="14.25">
+    <row r="21" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="9"/>
@@ -4194,7 +4226,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" ht="14.25">
+    <row r="22" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="9"/>
@@ -4214,7 +4246,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" ht="14.25">
+    <row r="23" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="9"/>
@@ -4234,7 +4266,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="14.25">
+    <row r="24" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="9"/>
@@ -4254,7 +4286,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18" ht="14.25">
+    <row r="25" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="9"/>
@@ -4274,7 +4306,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" ht="14.25">
+    <row r="26" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="9"/>
@@ -4294,7 +4326,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="14.25">
+    <row r="27" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="9"/>
@@ -4314,7 +4346,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18" ht="14.25">
+    <row r="28" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="9"/>
@@ -4334,7 +4366,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="14.25">
+    <row r="29" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="9"/>
@@ -4354,7 +4386,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="1:18" ht="14.25">
+    <row r="30" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="9"/>
@@ -4374,7 +4406,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="15" thickBot="1">
+    <row r="31" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="9"/>
@@ -4394,7 +4426,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="27.75" thickBot="1">
+    <row r="32" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="14" t="s">
         <v>22</v>
       </c>
@@ -4419,7 +4451,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="15" thickBot="1">
+    <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -4439,7 +4471,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="18.75" thickBot="1">
+    <row r="34" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -4463,7 +4495,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" ht="15.75" thickBot="1">
+    <row r="35" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>2</v>
       </c>
@@ -4489,7 +4521,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" ht="14.25">
+    <row r="36" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="21"/>
@@ -4509,7 +4541,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" ht="14.25">
+    <row r="37" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="21"/>
@@ -4529,7 +4561,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18" ht="14.25">
+    <row r="38" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="22"/>
@@ -4549,7 +4581,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" ht="14.25">
+    <row r="39" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="9"/>
@@ -4569,7 +4601,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" ht="14.25">
+    <row r="40" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="9"/>
@@ -4589,7 +4621,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="1:18" ht="14.25">
+    <row r="41" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="9"/>
@@ -4609,7 +4641,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" spans="1:18" ht="14.25">
+    <row r="42" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="9"/>
@@ -4629,7 +4661,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18" ht="15" thickBot="1">
+    <row r="43" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
       <c r="B43" s="23"/>
       <c r="C43" s="24"/>
@@ -4649,7 +4681,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:18" ht="27.75" thickBot="1">
+    <row r="44" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="14" t="s">
         <v>22</v>
       </c>
@@ -4674,7 +4706,7 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18" ht="15" thickBot="1">
+    <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="16"/>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
@@ -4694,7 +4726,7 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18" ht="18.75" thickBot="1">
+    <row r="46" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -4718,7 +4750,7 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18" ht="15.75" thickBot="1">
+    <row r="47" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>2</v>
       </c>
@@ -4744,7 +4776,7 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" ht="14.25">
+    <row r="48" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A48" s="19"/>
       <c r="B48" s="19"/>
       <c r="C48" s="20"/>
@@ -4764,7 +4796,7 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" ht="14.25">
+    <row r="49" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="9"/>
@@ -4784,7 +4816,7 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18" ht="14.25">
+    <row r="50" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="9"/>
@@ -4804,7 +4836,7 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" ht="14.25">
+    <row r="51" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="9"/>
@@ -4824,7 +4856,7 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18" ht="14.25">
+    <row r="52" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="9"/>
@@ -4844,7 +4876,7 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18" ht="14.25">
+    <row r="53" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="9"/>
@@ -4864,7 +4896,7 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="1:18" ht="14.25">
+    <row r="54" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A54" s="25"/>
       <c r="B54" s="25"/>
       <c r="C54" s="26"/>
@@ -4884,7 +4916,7 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18" ht="14.25">
+    <row r="55" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A55" s="25"/>
       <c r="B55" s="25"/>
       <c r="C55" s="26"/>
@@ -4904,7 +4936,7 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18" ht="14.25">
+    <row r="56" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A56" s="25"/>
       <c r="B56" s="25"/>
       <c r="C56" s="26"/>
@@ -4924,7 +4956,7 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="1:18" ht="14.25">
+    <row r="57" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A57" s="25"/>
       <c r="B57" s="25"/>
       <c r="C57" s="26"/>
@@ -4944,7 +4976,7 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="1:18" ht="15" thickBot="1">
+    <row r="58" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="23"/>
       <c r="B58" s="23"/>
       <c r="C58" s="24"/>
@@ -4964,7 +4996,7 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18" ht="27.75" thickBot="1">
+    <row r="59" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="14" t="s">
         <v>22</v>
       </c>
@@ -4989,7 +5021,7 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:18" ht="15" thickBot="1">
+    <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="16"/>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
@@ -5009,7 +5041,7 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:18" ht="18.75" thickBot="1">
+    <row r="61" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
@@ -5033,7 +5065,7 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18" ht="15.75" thickBot="1">
+    <row r="62" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>2</v>
       </c>
@@ -5059,7 +5091,7 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" ht="14.25">
+    <row r="63" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A63" s="19"/>
       <c r="B63" s="19"/>
       <c r="C63" s="20"/>
@@ -5079,7 +5111,7 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" spans="1:18" ht="14.25">
+    <row r="64" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="9"/>
@@ -5099,7 +5131,7 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
     </row>
-    <row r="65" spans="1:18" ht="14.25">
+    <row r="65" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="9"/>
@@ -5119,7 +5151,7 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
     </row>
-    <row r="66" spans="1:18" ht="14.25">
+    <row r="66" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="9"/>
@@ -5139,7 +5171,7 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
     </row>
-    <row r="67" spans="1:18" ht="14.25">
+    <row r="67" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="9"/>
@@ -5159,7 +5191,7 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" ht="15" thickBot="1">
+    <row r="68" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="23"/>
       <c r="B68" s="23"/>
       <c r="C68" s="24"/>
@@ -5179,7 +5211,7 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
     </row>
-    <row r="69" spans="1:18" ht="27.75" thickBot="1">
+    <row r="69" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="14" t="s">
         <v>22</v>
       </c>
@@ -5204,7 +5236,7 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
     </row>
-    <row r="70" spans="1:18" ht="15" thickBot="1">
+    <row r="70" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="16"/>
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
@@ -5224,7 +5256,7 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18" ht="18.75" thickBot="1">
+    <row r="71" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
@@ -5248,7 +5280,7 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
-    <row r="72" spans="1:18" ht="15.75" thickBot="1">
+    <row r="72" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>2</v>
       </c>
@@ -5274,7 +5306,7 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18" ht="14.25">
+    <row r="73" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A73" s="19"/>
       <c r="B73" s="19"/>
       <c r="C73" s="20"/>
@@ -5294,7 +5326,7 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
-    <row r="74" spans="1:18" ht="14.25">
+    <row r="74" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="9"/>
@@ -5314,7 +5346,7 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
     </row>
-    <row r="75" spans="1:18" ht="14.25">
+    <row r="75" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="9"/>
@@ -5334,7 +5366,7 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
     </row>
-    <row r="76" spans="1:18" ht="14.25">
+    <row r="76" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="9"/>
@@ -5354,7 +5386,7 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
     </row>
-    <row r="77" spans="1:18" ht="14.25">
+    <row r="77" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="9"/>
@@ -5374,7 +5406,7 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:18" ht="14.25">
+    <row r="78" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="9"/>
@@ -5394,7 +5426,7 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
     </row>
-    <row r="79" spans="1:18" ht="14.25">
+    <row r="79" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="9"/>
@@ -5414,7 +5446,7 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
     </row>
-    <row r="80" spans="1:18" ht="15" thickBot="1">
+    <row r="80" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="23"/>
       <c r="B80" s="23"/>
       <c r="C80" s="24"/>
@@ -5434,7 +5466,7 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
     </row>
-    <row r="81" spans="1:18" ht="27.75" thickBot="1">
+    <row r="81" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="14" t="s">
         <v>22</v>
       </c>
@@ -5459,7 +5491,7 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
     </row>
-    <row r="82" spans="1:18" ht="14.25">
+    <row r="82" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
@@ -5479,7 +5511,7 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
     </row>
-    <row r="83" spans="1:18" ht="14.25">
+    <row r="83" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A83" s="27"/>
       <c r="B83" s="27"/>
       <c r="C83" s="27"/>
@@ -5499,7 +5531,7 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
     </row>
-    <row r="84" spans="1:18" ht="14.25">
+    <row r="84" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A84" s="27"/>
       <c r="B84" s="27"/>
       <c r="C84" s="27"/>
@@ -5519,7 +5551,7 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
     </row>
-    <row r="85" spans="1:18" ht="14.25">
+    <row r="85" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A85" s="27"/>
       <c r="B85" s="27"/>
       <c r="C85" s="27"/>
@@ -5539,7 +5571,7 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
     </row>
-    <row r="86" spans="1:18" ht="14.25">
+    <row r="86" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A86" s="27"/>
       <c r="B86" s="27"/>
       <c r="C86" s="27"/>
@@ -5559,7 +5591,7 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
     </row>
-    <row r="87" spans="1:18" ht="14.25">
+    <row r="87" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A87" s="27"/>
       <c r="B87" s="27"/>
       <c r="C87" s="27"/>
@@ -5579,7 +5611,7 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
     </row>
-    <row r="88" spans="1:18" ht="14.25">
+    <row r="88" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A88" s="27"/>
       <c r="B88" s="27"/>
       <c r="C88" s="27"/>
@@ -5599,7 +5631,7 @@
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
     </row>
-    <row r="89" spans="1:18" ht="14.25">
+    <row r="89" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A89" s="27"/>
       <c r="B89" s="27"/>
       <c r="C89" s="27"/>
@@ -5619,7 +5651,7 @@
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
     </row>
-    <row r="90" spans="1:18" ht="14.25">
+    <row r="90" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A90" s="27"/>
       <c r="B90" s="27"/>
       <c r="C90" s="27"/>
@@ -5639,7 +5671,7 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
     </row>
-    <row r="91" spans="1:18" ht="14.25">
+    <row r="91" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A91" s="27"/>
       <c r="B91" s="27"/>
       <c r="C91" s="27"/>
@@ -5659,7 +5691,7 @@
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
     </row>
-    <row r="92" spans="1:18" ht="14.25">
+    <row r="92" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A92" s="27"/>
       <c r="B92" s="27"/>
       <c r="C92" s="27"/>
@@ -5679,7 +5711,7 @@
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
     </row>
-    <row r="93" spans="1:18" ht="14.25">
+    <row r="93" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A93" s="27"/>
       <c r="B93" s="27"/>
       <c r="C93" s="27"/>
@@ -5699,7 +5731,7 @@
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
     </row>
-    <row r="94" spans="1:18" ht="14.25">
+    <row r="94" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A94" s="28"/>
       <c r="B94" s="28"/>
       <c r="C94" s="28"/>
@@ -5737,18 +5769,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716E2DDB-6361-470B-ACF3-8FDF9046203A}">
   <dimension ref="A1:R95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="78.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75" thickBot="1">
+    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5774,7 +5806,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -5802,7 +5834,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="94.5">
+    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -5830,7 +5862,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="54">
+    <row r="4" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -5858,7 +5890,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="67.5">
+    <row r="5" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -5886,7 +5918,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="81">
+    <row r="6" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>12</v>
       </c>
@@ -5914,7 +5946,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="67.5">
+    <row r="7" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
@@ -5942,7 +5974,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="108">
+    <row r="8" spans="1:18" ht="108" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>16</v>
       </c>
@@ -5970,7 +6002,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="94.5">
+    <row r="9" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
@@ -5998,7 +6030,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="81">
+    <row r="10" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -6026,12 +6058,12 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="14.25">
+    <row r="11" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="12" t="s">
@@ -6052,12 +6084,12 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="14.25">
+    <row r="12" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="12" t="s">
@@ -6078,13 +6110,13 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="27">
+    <row r="13" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="14">
         <f>SUM(B3:B12)</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -6103,7 +6135,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="14.25">
+    <row r="14" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -6123,7 +6155,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="18">
+    <row r="15" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -6147,7 +6179,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="15">
+    <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>2</v>
       </c>
@@ -6173,7 +6205,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="14.25">
+    <row r="17" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="7"/>
       <c r="C17" s="18"/>
@@ -6193,7 +6225,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="14.25">
+    <row r="18" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="9"/>
@@ -6213,7 +6245,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="14.25">
+    <row r="19" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="9"/>
@@ -6233,7 +6265,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="14.25">
+    <row r="20" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="9"/>
@@ -6253,7 +6285,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="14.25">
+    <row r="21" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="9"/>
@@ -6273,7 +6305,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" ht="14.25">
+    <row r="22" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="9"/>
@@ -6293,7 +6325,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" ht="14.25">
+    <row r="23" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="9"/>
@@ -6313,7 +6345,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="14.25">
+    <row r="24" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="9"/>
@@ -6333,7 +6365,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18" ht="14.25">
+    <row r="25" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="9"/>
@@ -6353,7 +6385,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" ht="14.25">
+    <row r="26" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="9"/>
@@ -6373,7 +6405,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="14.25">
+    <row r="27" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="9"/>
@@ -6393,7 +6425,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18" ht="14.25">
+    <row r="28" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="9"/>
@@ -6413,7 +6445,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="14.25">
+    <row r="29" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="9"/>
@@ -6433,7 +6465,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="1:18" ht="14.25">
+    <row r="30" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="9"/>
@@ -6453,7 +6485,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="14.25">
+    <row r="31" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="9"/>
@@ -6473,7 +6505,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="14.25">
+    <row r="32" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="9"/>
@@ -6493,7 +6525,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="27">
+    <row r="33" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
         <v>22</v>
       </c>
@@ -6518,7 +6550,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="14.25">
+    <row r="34" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -6538,7 +6570,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" ht="18">
+    <row r="35" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -6562,7 +6594,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" ht="15">
+    <row r="36" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>2</v>
       </c>
@@ -6588,7 +6620,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" ht="14.25">
+    <row r="37" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="21"/>
@@ -6608,7 +6640,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18" ht="14.25">
+    <row r="38" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="21"/>
@@ -6628,7 +6660,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" ht="14.25">
+    <row r="39" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="22"/>
@@ -6648,7 +6680,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" ht="14.25">
+    <row r="40" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="9"/>
@@ -6668,7 +6700,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="1:18" ht="14.25">
+    <row r="41" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="9"/>
@@ -6688,7 +6720,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" spans="1:18" ht="14.25">
+    <row r="42" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="9"/>
@@ -6708,7 +6740,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18" ht="14.25">
+    <row r="43" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="9"/>
@@ -6728,7 +6760,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:18" ht="14.25">
+    <row r="44" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A44" s="23"/>
       <c r="B44" s="23"/>
       <c r="C44" s="24"/>
@@ -6748,7 +6780,7 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18" ht="27">
+    <row r="45" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
         <v>22</v>
       </c>
@@ -6773,7 +6805,7 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18" ht="14.25">
+    <row r="46" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A46" s="16"/>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
@@ -6793,7 +6825,7 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18" ht="18">
+    <row r="47" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -6817,7 +6849,7 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" ht="15">
+    <row r="48" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>2</v>
       </c>
@@ -6843,7 +6875,7 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" ht="14.25">
+    <row r="49" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A49" s="19"/>
       <c r="B49" s="19"/>
       <c r="C49" s="20"/>
@@ -6863,7 +6895,7 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18" ht="14.25">
+    <row r="50" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="9"/>
@@ -6883,7 +6915,7 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" ht="14.25">
+    <row r="51" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="9"/>
@@ -6903,7 +6935,7 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18" ht="14.25">
+    <row r="52" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="9"/>
@@ -6923,7 +6955,7 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18" ht="14.25">
+    <row r="53" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="9"/>
@@ -6943,7 +6975,7 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="1:18" ht="14.25">
+    <row r="54" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="9"/>
@@ -6963,7 +6995,7 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18" ht="14.25">
+    <row r="55" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A55" s="25"/>
       <c r="B55" s="25"/>
       <c r="C55" s="26"/>
@@ -6983,7 +7015,7 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18" ht="14.25">
+    <row r="56" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A56" s="25"/>
       <c r="B56" s="25"/>
       <c r="C56" s="26"/>
@@ -7003,7 +7035,7 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="1:18" ht="14.25">
+    <row r="57" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A57" s="25"/>
       <c r="B57" s="25"/>
       <c r="C57" s="26"/>
@@ -7023,7 +7055,7 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="1:18" ht="14.25">
+    <row r="58" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A58" s="25"/>
       <c r="B58" s="25"/>
       <c r="C58" s="26"/>
@@ -7043,7 +7075,7 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18" ht="14.25">
+    <row r="59" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A59" s="23"/>
       <c r="B59" s="23"/>
       <c r="C59" s="24"/>
@@ -7063,7 +7095,7 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:18" ht="27">
+    <row r="60" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="s">
         <v>22</v>
       </c>
@@ -7088,7 +7120,7 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:18" ht="14.25">
+    <row r="61" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A61" s="16"/>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
@@ -7108,7 +7140,7 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18" ht="18">
+    <row r="62" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
@@ -7132,7 +7164,7 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" ht="15">
+    <row r="63" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>2</v>
       </c>
@@ -7158,7 +7190,7 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" spans="1:18" ht="14.25">
+    <row r="64" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A64" s="19"/>
       <c r="B64" s="19"/>
       <c r="C64" s="20"/>
@@ -7178,7 +7210,7 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
     </row>
-    <row r="65" spans="1:18" ht="14.25">
+    <row r="65" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="9"/>
@@ -7198,7 +7230,7 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
     </row>
-    <row r="66" spans="1:18" ht="14.25">
+    <row r="66" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="9"/>
@@ -7218,7 +7250,7 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
     </row>
-    <row r="67" spans="1:18" ht="14.25">
+    <row r="67" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="9"/>
@@ -7238,7 +7270,7 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" ht="14.25">
+    <row r="68" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="9"/>
@@ -7258,7 +7290,7 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
     </row>
-    <row r="69" spans="1:18" ht="14.25">
+    <row r="69" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A69" s="23"/>
       <c r="B69" s="23"/>
       <c r="C69" s="24"/>
@@ -7278,7 +7310,7 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
     </row>
-    <row r="70" spans="1:18" ht="27">
+    <row r="70" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A70" s="14" t="s">
         <v>22</v>
       </c>
@@ -7303,7 +7335,7 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18" ht="14.25">
+    <row r="71" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A71" s="16"/>
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
@@ -7323,7 +7355,7 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
-    <row r="72" spans="1:18" ht="18">
+    <row r="72" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
@@ -7347,7 +7379,7 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18" ht="15">
+    <row r="73" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>2</v>
       </c>
@@ -7373,7 +7405,7 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
-    <row r="74" spans="1:18" ht="14.25">
+    <row r="74" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A74" s="19"/>
       <c r="B74" s="19"/>
       <c r="C74" s="20"/>
@@ -7393,7 +7425,7 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
     </row>
-    <row r="75" spans="1:18" ht="14.25">
+    <row r="75" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="9"/>
@@ -7413,7 +7445,7 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
     </row>
-    <row r="76" spans="1:18" ht="14.25">
+    <row r="76" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="9"/>
@@ -7433,7 +7465,7 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
     </row>
-    <row r="77" spans="1:18" ht="14.25">
+    <row r="77" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="9"/>
@@ -7453,7 +7485,7 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:18" ht="14.25">
+    <row r="78" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="9"/>
@@ -7473,7 +7505,7 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
     </row>
-    <row r="79" spans="1:18" ht="14.25">
+    <row r="79" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="9"/>
@@ -7493,7 +7525,7 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
     </row>
-    <row r="80" spans="1:18" ht="14.25">
+    <row r="80" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="9"/>
@@ -7513,7 +7545,7 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
     </row>
-    <row r="81" spans="1:18" ht="14.25">
+    <row r="81" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A81" s="23"/>
       <c r="B81" s="23"/>
       <c r="C81" s="24"/>
@@ -7533,7 +7565,7 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
     </row>
-    <row r="82" spans="1:18" ht="27">
+    <row r="82" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A82" s="14" t="s">
         <v>22</v>
       </c>
@@ -7558,7 +7590,7 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
     </row>
-    <row r="83" spans="1:18" ht="14.25">
+    <row r="83" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A83" s="16"/>
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
@@ -7578,7 +7610,7 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
     </row>
-    <row r="84" spans="1:18" ht="14.25">
+    <row r="84" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A84" s="27"/>
       <c r="B84" s="27"/>
       <c r="C84" s="27"/>
@@ -7598,7 +7630,7 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
     </row>
-    <row r="85" spans="1:18" ht="14.25">
+    <row r="85" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A85" s="27"/>
       <c r="B85" s="27"/>
       <c r="C85" s="27"/>
@@ -7618,7 +7650,7 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
     </row>
-    <row r="86" spans="1:18" ht="14.25">
+    <row r="86" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A86" s="27"/>
       <c r="B86" s="27"/>
       <c r="C86" s="27"/>
@@ -7638,7 +7670,7 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
     </row>
-    <row r="87" spans="1:18" ht="14.25">
+    <row r="87" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A87" s="27"/>
       <c r="B87" s="27"/>
       <c r="C87" s="27"/>
@@ -7658,7 +7690,7 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
     </row>
-    <row r="88" spans="1:18" ht="14.25">
+    <row r="88" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A88" s="27"/>
       <c r="B88" s="27"/>
       <c r="C88" s="27"/>
@@ -7678,7 +7710,7 @@
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
     </row>
-    <row r="89" spans="1:18" ht="14.25">
+    <row r="89" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A89" s="27"/>
       <c r="B89" s="27"/>
       <c r="C89" s="27"/>
@@ -7698,7 +7730,7 @@
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
     </row>
-    <row r="90" spans="1:18" ht="14.25">
+    <row r="90" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A90" s="27"/>
       <c r="B90" s="27"/>
       <c r="C90" s="27"/>
@@ -7718,7 +7750,7 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
     </row>
-    <row r="91" spans="1:18" ht="14.25">
+    <row r="91" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A91" s="27"/>
       <c r="B91" s="27"/>
       <c r="C91" s="27"/>
@@ -7738,7 +7770,7 @@
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
     </row>
-    <row r="92" spans="1:18" ht="14.25">
+    <row r="92" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A92" s="27"/>
       <c r="B92" s="27"/>
       <c r="C92" s="27"/>
@@ -7758,7 +7790,7 @@
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
     </row>
-    <row r="93" spans="1:18" ht="14.25">
+    <row r="93" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A93" s="27"/>
       <c r="B93" s="27"/>
       <c r="C93" s="27"/>
@@ -7778,7 +7810,7 @@
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
     </row>
-    <row r="94" spans="1:18" ht="14.25">
+    <row r="94" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A94" s="27"/>
       <c r="B94" s="27"/>
       <c r="C94" s="27"/>
@@ -7798,7 +7830,7 @@
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
     </row>
-    <row r="95" spans="1:18" ht="14.25">
+    <row r="95" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A95" s="28"/>
       <c r="B95" s="28"/>
       <c r="C95" s="28"/>
@@ -7834,20 +7866,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
-  <dimension ref="A1:R94"/>
+  <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="78.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75" thickBot="1">
+    <row r="1" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7873,7 +7905,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -7901,7 +7933,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="27">
+    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -7911,7 +7943,9 @@
       <c r="C3" s="8">
         <v>43906</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="E3" s="10"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -7927,17 +7961,19 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="27">
+    <row r="4" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="8">
         <v>43906</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="E4" s="10"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -7953,17 +7989,19 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="67.5">
+    <row r="5" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="8">
         <v>43907</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="E5" s="10"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -7979,17 +8017,19 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="54">
+    <row r="6" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" s="8">
         <v>43908</v>
       </c>
-      <c r="D6" s="30"/>
+      <c r="D6" s="30" t="s">
+        <v>13</v>
+      </c>
       <c r="E6" s="10"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -8005,17 +8045,19 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="67.5">
+    <row r="7" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="11">
         <v>43909</v>
       </c>
-      <c r="D7" s="30"/>
+      <c r="D7" s="30" t="s">
+        <v>15</v>
+      </c>
       <c r="E7" s="10"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -8031,17 +8073,19 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="108">
+    <row r="8" spans="1:18" ht="108" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" s="11">
         <v>43910</v>
       </c>
-      <c r="D8" s="30"/>
+      <c r="D8" s="30" t="s">
+        <v>17</v>
+      </c>
       <c r="E8" s="10"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -8057,17 +8101,19 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="94.5">
+    <row r="9" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" s="11">
         <v>43911</v>
       </c>
-      <c r="D9" s="32"/>
+      <c r="D9" s="32" t="s">
+        <v>19</v>
+      </c>
       <c r="E9" s="10"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -8083,11 +8129,19 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="14.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="13"/>
+    <row r="10" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
+        <v>43913</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="E10" s="10"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -8103,11 +8157,17 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
+    <row r="11" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="7">
+        <v>3</v>
+      </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="12"/>
+      <c r="D11" s="34" t="s">
+        <v>30</v>
+      </c>
       <c r="E11" s="10"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -8123,16 +8183,17 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="27.75" thickBot="1">
-      <c r="A12" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="14">
-        <f>SUM(B3:B11)</f>
-        <v>24</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+    <row r="12" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="34" t="s">
+        <v>31</v>
+      </c>
       <c r="E12" s="10"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -8148,11 +8209,17 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
+    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="E13" s="10"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -8168,15 +8235,16 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="18.75" thickBot="1">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+    <row r="14" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="14">
+        <f>SUM(B3:B13)</f>
+        <v>21</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="10"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -8192,17 +8260,11 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A15" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="10"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -8218,11 +8280,15 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="14.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="9"/>
+    <row r="16" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="10"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -8238,11 +8304,17 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="14.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E17" s="10"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -8258,10 +8330,10 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="14.25">
-      <c r="A18" s="7"/>
+    <row r="18" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="9"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="9"/>
       <c r="E18" s="10"/>
       <c r="F18" s="4"/>
@@ -8278,7 +8350,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="14.25">
+    <row r="19" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="9"/>
@@ -8298,7 +8370,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="14.25">
+    <row r="20" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="9"/>
@@ -8318,7 +8390,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="14.25">
+    <row r="21" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="9"/>
@@ -8338,7 +8410,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" ht="14.25">
+    <row r="22" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="9"/>
@@ -8358,7 +8430,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" ht="14.25">
+    <row r="23" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="9"/>
@@ -8378,7 +8450,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="14.25">
+    <row r="24" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="9"/>
@@ -8398,7 +8470,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18" ht="14.25">
+    <row r="25" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="9"/>
@@ -8418,7 +8490,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" ht="14.25">
+    <row r="26" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="9"/>
@@ -8438,7 +8510,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="14.25">
+    <row r="27" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="9"/>
@@ -8458,7 +8530,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18" ht="14.25">
+    <row r="28" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="9"/>
@@ -8478,7 +8550,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="14.25">
+    <row r="29" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="9"/>
@@ -8498,7 +8570,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="1:18" ht="14.25">
+    <row r="30" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="9"/>
@@ -8518,7 +8590,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="15" thickBot="1">
+    <row r="31" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="9"/>
@@ -8538,16 +8610,11 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="27.75" thickBot="1">
-      <c r="A32" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="14">
-        <f>SUM(B16:B31)</f>
-        <v>0</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
+    <row r="32" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
       <c r="E32" s="10"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -8563,11 +8630,11 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="15" thickBot="1">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
+    <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="10"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -8583,15 +8650,16 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="18.75" thickBot="1">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="14">
+        <f>SUM(B18:B33)</f>
         <v>0</v>
       </c>
-      <c r="B34" s="2">
-        <v>3</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
       <c r="E34" s="10"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -8607,17 +8675,11 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A35" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="35" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
       <c r="E35" s="10"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -8633,11 +8695,15 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" ht="14.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="20"/>
+    <row r="36" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="2">
+        <v>3</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
       <c r="E36" s="10"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -8653,11 +8719,17 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" ht="14.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="9"/>
+    <row r="37" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E37" s="10"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -8673,11 +8745,11 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18" ht="14.25">
+    <row r="38" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="9"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="20"/>
       <c r="E38" s="10"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -8693,10 +8765,10 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" ht="14.25">
+    <row r="39" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="9"/>
+      <c r="C39" s="21"/>
       <c r="D39" s="9"/>
       <c r="E39" s="10"/>
       <c r="F39" s="4"/>
@@ -8713,10 +8785,10 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" ht="14.25">
+    <row r="40" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="9"/>
+      <c r="C40" s="22"/>
       <c r="D40" s="9"/>
       <c r="E40" s="10"/>
       <c r="F40" s="4"/>
@@ -8733,7 +8805,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="1:18" ht="14.25">
+    <row r="41" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="9"/>
@@ -8753,7 +8825,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" spans="1:18" ht="14.25">
+    <row r="42" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="9"/>
@@ -8773,11 +8845,11 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18" ht="15" thickBot="1">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
+    <row r="43" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
       <c r="E43" s="10"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -8793,16 +8865,11 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:18" ht="27.75" thickBot="1">
-      <c r="A44" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B44" s="14">
-        <f>SUM(B36:B43)</f>
-        <v>0</v>
-      </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
+    <row r="44" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
       <c r="E44" s="10"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -8818,11 +8885,11 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18" ht="15" thickBot="1">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
+    <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
       <c r="E45" s="10"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -8838,15 +8905,16 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18" ht="18.75" thickBot="1">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="14">
+        <f>SUM(B38:B45)</f>
         <v>0</v>
       </c>
-      <c r="B46" s="2">
-        <v>4</v>
-      </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
       <c r="E46" s="10"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
@@ -8862,17 +8930,11 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A47" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="47" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
       <c r="E47" s="10"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -8888,11 +8950,15 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" ht="14.25">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
+    <row r="48" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="2">
+        <v>4</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
       <c r="E48" s="10"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -8908,11 +8974,17 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" ht="14.25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
+    <row r="49" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E49" s="10"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -8928,11 +9000,11 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18" ht="14.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
+    <row r="50" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A50" s="19"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
       <c r="E50" s="10"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
@@ -8948,7 +9020,7 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" ht="14.25">
+    <row r="51" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="9"/>
@@ -8968,7 +9040,7 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18" ht="14.25">
+    <row r="52" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="9"/>
@@ -8988,7 +9060,7 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18" ht="14.25">
+    <row r="53" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="9"/>
@@ -9008,11 +9080,11 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="1:18" ht="14.25">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
+    <row r="54" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
       <c r="E54" s="10"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
@@ -9028,11 +9100,11 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18" ht="14.25">
-      <c r="A55" s="25"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
+    <row r="55" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
       <c r="E55" s="10"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
@@ -9048,7 +9120,7 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18" ht="14.25">
+    <row r="56" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A56" s="25"/>
       <c r="B56" s="25"/>
       <c r="C56" s="26"/>
@@ -9068,7 +9140,7 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="1:18" ht="14.25">
+    <row r="57" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A57" s="25"/>
       <c r="B57" s="25"/>
       <c r="C57" s="26"/>
@@ -9088,11 +9160,11 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="1:18" ht="15" thickBot="1">
-      <c r="A58" s="23"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
+    <row r="58" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A58" s="25"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
       <c r="E58" s="10"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
@@ -9108,16 +9180,11 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18" ht="27.75" thickBot="1">
-      <c r="A59" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B59" s="14">
-        <f>SUM(B48:B58)</f>
-        <v>0</v>
-      </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
+    <row r="59" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A59" s="25"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
       <c r="E59" s="10"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
@@ -9133,11 +9200,11 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:18" ht="15" thickBot="1">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
+    <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="23"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
       <c r="E60" s="10"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
@@ -9153,15 +9220,16 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:18" ht="18.75" thickBot="1">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61" s="14">
+        <f>SUM(B50:B60)</f>
         <v>0</v>
       </c>
-      <c r="B61" s="2">
-        <v>5</v>
-      </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
       <c r="E61" s="10"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
@@ -9177,17 +9245,11 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A62" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
       <c r="E62" s="10"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
@@ -9203,11 +9265,15 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" ht="14.25">
-      <c r="A63" s="19"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
+    <row r="63" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="2">
+        <v>5</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
       <c r="E63" s="10"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
@@ -9223,11 +9289,17 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" spans="1:18" ht="14.25">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
+    <row r="64" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E64" s="10"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
@@ -9243,11 +9315,11 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
     </row>
-    <row r="65" spans="1:18" ht="14.25">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
+    <row r="65" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A65" s="19"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
       <c r="E65" s="10"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
@@ -9263,7 +9335,7 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
     </row>
-    <row r="66" spans="1:18" ht="14.25">
+    <row r="66" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="9"/>
@@ -9283,7 +9355,7 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
     </row>
-    <row r="67" spans="1:18" ht="14.25">
+    <row r="67" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="9"/>
@@ -9303,11 +9375,11 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" ht="15" thickBot="1">
-      <c r="A68" s="23"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
+    <row r="68" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
       <c r="E68" s="10"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
@@ -9323,16 +9395,11 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
     </row>
-    <row r="69" spans="1:18" ht="27.75" thickBot="1">
-      <c r="A69" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B69" s="14">
-        <f>SUM(B63:B68)</f>
-        <v>0</v>
-      </c>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
+    <row r="69" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
       <c r="E69" s="10"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
@@ -9348,11 +9415,11 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
     </row>
-    <row r="70" spans="1:18" ht="15" thickBot="1">
-      <c r="A70" s="16"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
+    <row r="70" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="23"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
       <c r="E70" s="10"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
@@ -9368,15 +9435,16 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18" ht="18.75" thickBot="1">
-      <c r="A71" s="1" t="s">
+    <row r="71" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" s="14">
+        <f>SUM(B65:B70)</f>
         <v>0</v>
       </c>
-      <c r="B71" s="2">
-        <v>6</v>
-      </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
       <c r="E71" s="10"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
@@ -9392,17 +9460,11 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
-    <row r="72" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A72" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="72" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
       <c r="E72" s="10"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
@@ -9418,11 +9480,15 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18" ht="14.25">
-      <c r="A73" s="19"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
+    <row r="73" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="2">
+        <v>6</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
       <c r="E73" s="10"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
@@ -9438,11 +9504,17 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
-    <row r="74" spans="1:18" ht="14.25">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
+    <row r="74" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E74" s="10"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
@@ -9458,11 +9530,11 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
     </row>
-    <row r="75" spans="1:18" ht="14.25">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
+    <row r="75" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A75" s="19"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
       <c r="E75" s="10"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
@@ -9478,7 +9550,7 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
     </row>
-    <row r="76" spans="1:18" ht="14.25">
+    <row r="76" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="9"/>
@@ -9498,7 +9570,7 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
     </row>
-    <row r="77" spans="1:18" ht="14.25">
+    <row r="77" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="9"/>
@@ -9518,7 +9590,7 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:18" ht="14.25">
+    <row r="78" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="9"/>
@@ -9538,7 +9610,7 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
     </row>
-    <row r="79" spans="1:18" ht="14.25">
+    <row r="79" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="9"/>
@@ -9558,11 +9630,11 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
     </row>
-    <row r="80" spans="1:18" ht="15" thickBot="1">
-      <c r="A80" s="23"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
+    <row r="80" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
       <c r="E80" s="10"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
@@ -9578,16 +9650,11 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
     </row>
-    <row r="81" spans="1:18" ht="27.75" thickBot="1">
-      <c r="A81" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B81" s="14">
-        <f>SUM(B73:B80)</f>
-        <v>0</v>
-      </c>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
+    <row r="81" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
       <c r="E81" s="10"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
@@ -9603,11 +9670,11 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
     </row>
-    <row r="82" spans="1:18" ht="14.25">
-      <c r="A82" s="16"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
+    <row r="82" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="23"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
       <c r="E82" s="10"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
@@ -9623,11 +9690,16 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
     </row>
-    <row r="83" spans="1:18" ht="14.25">
-      <c r="A83" s="27"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
+    <row r="83" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B83" s="14">
+        <f>SUM(B75:B82)</f>
+        <v>0</v>
+      </c>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
       <c r="E83" s="10"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
@@ -9643,11 +9715,11 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
     </row>
-    <row r="84" spans="1:18" ht="14.25">
-      <c r="A84" s="27"/>
-      <c r="B84" s="27"/>
-      <c r="C84" s="27"/>
-      <c r="D84" s="27"/>
+    <row r="84" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
       <c r="E84" s="10"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
@@ -9663,7 +9735,7 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
     </row>
-    <row r="85" spans="1:18" ht="14.25">
+    <row r="85" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A85" s="27"/>
       <c r="B85" s="27"/>
       <c r="C85" s="27"/>
@@ -9683,7 +9755,7 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
     </row>
-    <row r="86" spans="1:18" ht="14.25">
+    <row r="86" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A86" s="27"/>
       <c r="B86" s="27"/>
       <c r="C86" s="27"/>
@@ -9703,7 +9775,7 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
     </row>
-    <row r="87" spans="1:18" ht="14.25">
+    <row r="87" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A87" s="27"/>
       <c r="B87" s="27"/>
       <c r="C87" s="27"/>
@@ -9723,7 +9795,7 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
     </row>
-    <row r="88" spans="1:18" ht="14.25">
+    <row r="88" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A88" s="27"/>
       <c r="B88" s="27"/>
       <c r="C88" s="27"/>
@@ -9743,7 +9815,7 @@
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
     </row>
-    <row r="89" spans="1:18" ht="14.25">
+    <row r="89" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A89" s="27"/>
       <c r="B89" s="27"/>
       <c r="C89" s="27"/>
@@ -9763,7 +9835,7 @@
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
     </row>
-    <row r="90" spans="1:18" ht="14.25">
+    <row r="90" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A90" s="27"/>
       <c r="B90" s="27"/>
       <c r="C90" s="27"/>
@@ -9783,7 +9855,7 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
     </row>
-    <row r="91" spans="1:18" ht="14.25">
+    <row r="91" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A91" s="27"/>
       <c r="B91" s="27"/>
       <c r="C91" s="27"/>
@@ -9803,7 +9875,7 @@
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
     </row>
-    <row r="92" spans="1:18" ht="14.25">
+    <row r="92" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A92" s="27"/>
       <c r="B92" s="27"/>
       <c r="C92" s="27"/>
@@ -9823,7 +9895,7 @@
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
     </row>
-    <row r="93" spans="1:18" ht="14.25">
+    <row r="93" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A93" s="27"/>
       <c r="B93" s="27"/>
       <c r="C93" s="27"/>
@@ -9843,11 +9915,11 @@
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
     </row>
-    <row r="94" spans="1:18" ht="14.25">
-      <c r="A94" s="28"/>
-      <c r="B94" s="28"/>
-      <c r="C94" s="28"/>
-      <c r="D94" s="28"/>
+    <row r="94" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A94" s="27"/>
+      <c r="B94" s="27"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="27"/>
       <c r="E94" s="10"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
@@ -9863,16 +9935,57 @@
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
     </row>
+    <row r="95" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A95" s="27"/>
+      <c r="B95" s="27"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4"/>
+      <c r="R95" s="4"/>
+    </row>
+    <row r="96" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A96" s="28"/>
+      <c r="B96" s="28"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="4"/>
+      <c r="O96" s="4"/>
+      <c r="P96" s="4"/>
+      <c r="Q96" s="4"/>
+      <c r="R96" s="4"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B73:B80 B16:B31 B36:B37 B39:B43 B48:B58 B63:B68 B10:B11 B3:B8" xr:uid="{64471589-AB55-4AF0-A3CB-2C4DA302E1FD}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" prompt="Durée en 1/3 de période - Le nombre doit être de type entier" sqref="B75:B82 B18:B33 B38:B39 B41:B45 B50:B60 B65:B70 B3:B8 B10:B13" xr:uid="{64471589-AB55-4AF0-A3CB-2C4DA302E1FD}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B12 B32 B44 B59 B69 B81" xr:uid="{E5C4B3DD-C4A0-4BDF-8596-69EE95FDEE2C}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" prompt="Dépassement de durée - Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B83 B34 B46 B61 B71 B14" xr:uid="{E5C4B3DD-C4A0-4BDF-8596-69EE95FDEE2C}">
       <formula1>0</formula1>
       <formula2>DureePeriode-1</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LM_Journal_Travail.xlsx
+++ b/LM_Journal_Travail.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\VS2019\Projets\Projet Gerber\Love-Mirroring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositories\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A221DC9D-07F9-4167-9A55-F253FBA85652}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C764AA62-7677-4028-9073-B1D2F2881C20}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
     <definedName name="NBLecons">#REF!</definedName>
     <definedName name="TachesPlanifiees">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -5770,7 +5770,7 @@
   <dimension ref="A1:R95"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -6063,7 +6063,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="12" t="s">
@@ -6089,7 +6089,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="12" t="s">

--- a/LM_Journal_Travail.xlsx
+++ b/LM_Journal_Travail.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositories\Love-Mirroring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C764AA62-7677-4028-9073-B1D2F2881C20}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F3EDD2-79AC-4589-ABBB-501C95AD5918}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="36">
   <si>
     <t>Jalon</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>Création et mise à jour des risques</t>
+  </si>
+  <si>
+    <t>Rédaction de texte</t>
+  </si>
+  <si>
+    <t>Mettre à jour les risques.</t>
   </si>
 </sst>
 </file>
@@ -748,8 +754,8 @@
   </sheetPr>
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3724,8 +3730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB7A04D-A66F-4A89-83F1-9B353075A776}">
   <dimension ref="A1:R94"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3789,7 +3795,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -3799,7 +3805,9 @@
       <c r="C3" s="8">
         <v>43906</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="E3" s="10"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -3815,17 +3823,19 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="54" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="8">
         <v>43906</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="E4" s="10"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -3846,12 +3856,14 @@
         <v>10</v>
       </c>
       <c r="B5" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="8">
         <v>43907</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="E5" s="10"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -3867,17 +3879,19 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="54" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="81" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" s="8">
         <v>43908</v>
       </c>
-      <c r="D6" s="30"/>
+      <c r="D6" s="30" t="s">
+        <v>13</v>
+      </c>
       <c r="E6" s="10"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -3898,12 +3912,14 @@
         <v>14</v>
       </c>
       <c r="B7" s="29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="11">
         <v>43909</v>
       </c>
-      <c r="D7" s="30"/>
+      <c r="D7" s="30" t="s">
+        <v>15</v>
+      </c>
       <c r="E7" s="10"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -3924,12 +3940,14 @@
         <v>16</v>
       </c>
       <c r="B8" s="29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" s="11">
         <v>43910</v>
       </c>
-      <c r="D8" s="30"/>
+      <c r="D8" s="30" t="s">
+        <v>17</v>
+      </c>
       <c r="E8" s="10"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -3950,12 +3968,14 @@
         <v>18</v>
       </c>
       <c r="B9" s="31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" s="11">
         <v>43911</v>
       </c>
-      <c r="D9" s="32"/>
+      <c r="D9" s="32" t="s">
+        <v>19</v>
+      </c>
       <c r="E9" s="10"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -3971,11 +3991,19 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="13"/>
+    <row r="10" spans="1:18" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
+        <v>43913</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="E10" s="10"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -3991,11 +4019,19 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="12"/>
+    <row r="11" spans="1:18" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="7">
+        <v>6</v>
+      </c>
+      <c r="C11" s="8">
+        <v>43913</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="E11" s="10"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -4017,7 +4053,7 @@
       </c>
       <c r="B12" s="14">
         <f>SUM(B3:B11)</f>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -5769,8 +5805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716E2DDB-6361-470B-ACF3-8FDF9046203A}">
   <dimension ref="A1:R95"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -7868,7 +7904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F222774-5003-490D-9078-78D1F6F89A4A}">
   <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
